--- a/docs/Interaction.xlsx
+++ b/docs/Interaction.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L110" sqref="L110"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/docs/Interaction.xlsx
+++ b/docs/Interaction.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darki\Documents\School\2018-Spring\CSC-445\Project-1\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\School\CSC-445\Measuring-Networks\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12308" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pi to Altair" sheetId="1" r:id="rId1"/>
@@ -410,9 +410,9 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -486,7 +486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -566,7 +566,7 @@
         <v>5370.8324720000001</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -628,7 +628,7 @@
         <v>5324.9629969999996</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -690,7 +690,7 @@
         <v>5325.3083269999997</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -752,7 +752,7 @@
         <v>5324.1382780000004</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -814,7 +814,7 @@
         <v>5321.4848220000003</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -876,7 +876,7 @@
         <v>5271.5684330000004</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -938,7 +938,7 @@
         <v>5217.103615</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>5322.9743680000001</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>5320.294594</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>5324.4099930000002</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>5324.1318250000004</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>12</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>5326.1226260000003</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>13</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>5330.4319679999999</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>14</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>5323.765711</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>15</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>5323.4017030000005</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>16</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>5319.3780390000002</v>
       </c>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>17</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>5324.4864610000004</v>
       </c>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>18</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>5339.7154280000004</v>
       </c>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>19</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>5311.3061879999996</v>
       </c>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>20</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>5313.589371</v>
       </c>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>21</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>5306.5855799999999</v>
       </c>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>22</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>5311.7201830000004</v>
       </c>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>23</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>5339.1041809999997</v>
       </c>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>24</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>5324.9208390000003</v>
       </c>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>25</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>5327.8265629999996</v>
       </c>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>26</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>5332.224999</v>
       </c>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>27</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>5326.424935</v>
       </c>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>28</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>5321.3565390000003</v>
       </c>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>29</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>5321.897387</v>
       </c>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>30</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>5319.9603420000003</v>
       </c>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>31</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>5315.625</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>32</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>5324.3425450000004</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>33</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>5297.9287569999997</v>
       </c>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>34</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>5190.5171540000001</v>
       </c>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>35</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>5307.3896109999996</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>36</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>5321.978102</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>37</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>5318.5500739999998</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>38</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>5313.8162840000005</v>
       </c>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>39</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>5314.7261689999996</v>
       </c>
     </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>40</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>5320.7242880000003</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>41</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>5324.6486430000004</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>42</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>5320.7462230000001</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>43</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>5320.9273430000003</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>44</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>5322.144663</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>45</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>5323.7862059999998</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>46</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>5291.6918260000002</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>47</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>5311.4819049999996</v>
       </c>
     </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>48</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>5313.1451850000003</v>
       </c>
     </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>49</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>5322.4785650000003</v>
       </c>
     </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>50</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>5324.9118340000005</v>
       </c>
     </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>51</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>5316.7679850000004</v>
       </c>
     </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>52</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>5320.3303079999996</v>
       </c>
     </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>53</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>5324.327147</v>
       </c>
     </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>54</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>5322.8344269999998</v>
       </c>
     </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>55</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>5260.3029759999999</v>
       </c>
     </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>56</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>5221.4264860000003</v>
       </c>
     </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>57</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>5324.8308950000001</v>
       </c>
     </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>58</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>5315.1487980000002</v>
       </c>
     </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>59</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>5321.2697479999997</v>
       </c>
     </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>60</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>5275.2896030000002</v>
       </c>
     </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>61</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>5199.1823180000001</v>
       </c>
     </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>62</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>5328.9888780000001</v>
       </c>
     </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>63</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>5322.897191</v>
       </c>
     </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>64</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>5247.3392869999998</v>
       </c>
     </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>65</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>5290.4059150000003</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>66</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>5299.3403170000001</v>
       </c>
     </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>67</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>5309.8532729999997</v>
       </c>
     </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>68</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>5320.0748759999997</v>
       </c>
     </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>69</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>5304.8942109999998</v>
       </c>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>70</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>5290.9133149999998</v>
       </c>
     </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>71</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>5298.5485870000002</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>72</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>5297.2663259999999</v>
       </c>
     </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>73</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>5304.1448659999996</v>
       </c>
     </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>74</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>5308.4288340000003</v>
       </c>
     </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>75</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>5315.8429500000002</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>76</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>5312.9503219999997</v>
       </c>
     </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>77</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>5305.4968399999998</v>
       </c>
     </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>78</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>5320.6129220000003</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>79</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>5321.3887249999998</v>
       </c>
     </row>
-    <row r="81" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>80</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>5319.0980129999998</v>
       </c>
     </row>
-    <row r="82" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>81</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>5319.2655629999999</v>
       </c>
     </row>
-    <row r="83" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>82</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>5322.727159</v>
       </c>
     </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>83</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>5317.4164030000002</v>
       </c>
     </row>
-    <row r="85" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>84</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>5321.7038519999996</v>
       </c>
     </row>
-    <row r="86" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>85</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>5322.3416129999996</v>
       </c>
     </row>
-    <row r="87" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>86</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>5322.5382829999999</v>
       </c>
     </row>
-    <row r="88" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>87</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>5309.4121880000002</v>
       </c>
     </row>
-    <row r="89" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>88</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>5315.641834</v>
       </c>
     </row>
-    <row r="90" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>89</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>5194.3839589999998</v>
       </c>
     </row>
-    <row r="91" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>90</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>5190.4033760000002</v>
       </c>
     </row>
-    <row r="92" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>91</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>5255.4919389999995</v>
       </c>
     </row>
-    <row r="93" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>92</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>5349.9302770000004</v>
       </c>
     </row>
-    <row r="94" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>93</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>5314.7755010000001</v>
       </c>
     </row>
-    <row r="95" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>94</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>5314.7964529999999</v>
       </c>
     </row>
-    <row r="96" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>95</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>5321.7934089999999</v>
       </c>
     </row>
-    <row r="97" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>96</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>5296.8817179999996</v>
       </c>
     </row>
-    <row r="98" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>97</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>5312.4152899999999</v>
       </c>
     </row>
-    <row r="99" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>98</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>5311.5735610000002</v>
       </c>
     </row>
-    <row r="100" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>99</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>5309.2682059999997</v>
       </c>
     </row>
-    <row r="101" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>100</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>5306.1353600000002</v>
       </c>
     </row>
-    <row r="102" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -6781,16 +6781,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P96" sqref="P96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="18" max="18" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>5923.8159999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>5937.0119999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>5936.6819999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
@@ -7130,7 +7130,7 @@
         <v>6142.9430000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>6346.692</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>5938.35</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>6146.5119999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>5933.5929999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>6347.7449999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>5939.0519999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>5938.1289999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>12</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>5938.0370000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>13</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>5937.6289999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>14</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>5936.59</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>15</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>6758.5770000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>16</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>5835.5060000000003</v>
       </c>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>17</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>6162.4960000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>18</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>5918.8519999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>19</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>5937.076</v>
       </c>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>20</v>
       </c>
@@ -8122,7 +8122,7 @@
         <v>5938.4560000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>21</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>5937.3310000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>22</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>5937.4250000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>23</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>6265.5519999999997</v>
       </c>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>24</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>6053.3069999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>25</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>6144.0870000000004</v>
       </c>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>26</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>6345.2389999999996</v>
       </c>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>27</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>5937.7809999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>28</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>6383.8770000000004</v>
       </c>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>29</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>6209.982</v>
       </c>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>30</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>5938.16</v>
       </c>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>31</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>5938.915</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>32</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>5937.5810000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>33</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>5935.93</v>
       </c>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>34</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>5939.0280000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>35</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>5939.3159999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>36</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>6140.4840000000004</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>37</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>5938.2309999999998</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>38</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>6487.4949999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>39</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>6133.59</v>
       </c>
     </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>40</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>6678.4350000000004</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>41</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>6323.5389999999998</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>42</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>5937.8639999999996</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>43</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>6142.924</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>44</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>5937.3289999999997</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>45</v>
       </c>
@@ -9672,7 +9672,7 @@
         <v>6552.3379999999997</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>46</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>5939.0749999999998</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>47</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>5855.73</v>
       </c>
     </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>48</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>6019.36</v>
       </c>
     </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>49</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>6143.1610000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>50</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>6553.7690000000002</v>
       </c>
     </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>51</v>
       </c>
@@ -10044,7 +10044,7 @@
         <v>6143.3339999999998</v>
       </c>
     </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>52</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>6140.32</v>
       </c>
     </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>53</v>
       </c>
@@ -10168,7 +10168,7 @@
         <v>6144.5169999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>54</v>
       </c>
@@ -10230,7 +10230,7 @@
         <v>7188.4009999999998</v>
       </c>
     </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>55</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>5965.61</v>
       </c>
     </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>56</v>
       </c>
@@ -10354,7 +10354,7 @@
         <v>5936.1030000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>57</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>6142.9380000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>58</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>6142.21</v>
       </c>
     </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>59</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>5936.4170000000004</v>
       </c>
     </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>60</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>5937.9269999999997</v>
       </c>
     </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>61</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>6142.5680000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>62</v>
       </c>
@@ -10726,7 +10726,7 @@
         <v>6068.54</v>
       </c>
     </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>63</v>
       </c>
@@ -10788,7 +10788,7 @@
         <v>6216.2439999999997</v>
       </c>
     </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>64</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>6552.0129999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>65</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>7269.5</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>66</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>6308.7349999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>67</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>6180.81</v>
       </c>
     </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>68</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>6011.6279999999997</v>
       </c>
     </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>69</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>5937.4849999999997</v>
       </c>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>70</v>
       </c>
@@ -11222,7 +11222,7 @@
         <v>5937.393</v>
       </c>
     </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>71</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>6143.835</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>72</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>6345.8270000000002</v>
       </c>
     </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>73</v>
       </c>
@@ -11408,7 +11408,7 @@
         <v>6072.6090000000004</v>
       </c>
     </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>74</v>
       </c>
@@ -11470,7 +11470,7 @@
         <v>5940.4920000000002</v>
       </c>
     </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>75</v>
       </c>
@@ -11532,7 +11532,7 @@
         <v>5933.2240000000002</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>76</v>
       </c>
@@ -11594,7 +11594,7 @@
         <v>6347.9530000000004</v>
       </c>
     </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>77</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>6347.6180000000004</v>
       </c>
     </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>78</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>5936.9939999999997</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>79</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>5936.8509999999997</v>
       </c>
     </row>
-    <row r="81" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>80</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>5937.808</v>
       </c>
     </row>
-    <row r="82" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>81</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>6142.7759999999998</v>
       </c>
     </row>
-    <row r="83" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>82</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>5939.5609999999997</v>
       </c>
     </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>83</v>
       </c>
@@ -12028,7 +12028,7 @@
         <v>6162.2690000000002</v>
       </c>
     </row>
-    <row r="85" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>84</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>5915.6750000000002</v>
       </c>
     </row>
-    <row r="86" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>85</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>6142.9040000000005</v>
       </c>
     </row>
-    <row r="87" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>86</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>6143.1779999999999</v>
       </c>
     </row>
-    <row r="88" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>87</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>6346.9579999999996</v>
       </c>
     </row>
-    <row r="89" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>88</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>5937.0429999999997</v>
       </c>
     </row>
-    <row r="90" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>89</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>6142.6610000000001</v>
       </c>
     </row>
-    <row r="91" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>90</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v>5937.6530000000002</v>
       </c>
     </row>
-    <row r="92" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>91</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>5939.5690000000004</v>
       </c>
     </row>
-    <row r="93" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>92</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>5936.3119999999999</v>
       </c>
     </row>
-    <row r="94" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>93</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>5944.7139999999999</v>
       </c>
     </row>
-    <row r="95" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>94</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>5931.3689999999997</v>
       </c>
     </row>
-    <row r="96" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>95</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>6142.9889999999996</v>
       </c>
     </row>
-    <row r="97" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>96</v>
       </c>
@@ -12834,7 +12834,7 @@
         <v>6042.3620000000001</v>
       </c>
     </row>
-    <row r="98" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>97</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>5949.58</v>
       </c>
     </row>
-    <row r="99" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>98</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>6335.39</v>
       </c>
     </row>
-    <row r="100" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>99</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>5937.8860000000004</v>
       </c>
     </row>
-    <row r="101" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>100</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>6143.3149999999996</v>
       </c>
     </row>
-    <row r="102" spans="2:29" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>3</v>
       </c>
@@ -13159,16 +13159,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="18" max="18" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -13242,16 +13242,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>60349000</v>
+      </c>
       <c r="D2">
         <f>C2/1000000</f>
-        <v>0</v>
+        <v>60.348999999999997</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
@@ -13259,9 +13262,12 @@
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>25851000</v>
+      </c>
       <c r="I2">
         <f>H2/1000000</f>
-        <v>0</v>
+        <v>25.850999999999999</v>
       </c>
       <c r="K2" t="s">
         <v>4</v>
@@ -13269,9 +13275,12 @@
       <c r="L2">
         <v>1</v>
       </c>
+      <c r="M2">
+        <v>29760000</v>
+      </c>
       <c r="N2">
         <f>M2/1000000</f>
-        <v>0</v>
+        <v>29.76</v>
       </c>
       <c r="P2" t="s">
         <v>8</v>
@@ -13279,9 +13288,12 @@
       <c r="Q2">
         <v>1</v>
       </c>
+      <c r="R2">
+        <v>1462499000</v>
+      </c>
       <c r="S2">
         <f>R2/1000000</f>
-        <v>0</v>
+        <v>1462.499</v>
       </c>
       <c r="U2" t="s">
         <v>8</v>
@@ -13289,9 +13301,12 @@
       <c r="V2">
         <v>1</v>
       </c>
+      <c r="W2">
+        <v>2983574000</v>
+      </c>
       <c r="X2">
         <f>W2/1000000</f>
-        <v>0</v>
+        <v>2983.5740000000001</v>
       </c>
       <c r="Z2" t="s">
         <v>8</v>
@@ -13299,4433 +13314,6218 @@
       <c r="AA2">
         <v>1</v>
       </c>
+      <c r="AB2">
+        <v>5785135000</v>
+      </c>
       <c r="AC2">
         <f>AB2/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
+        <v>5785.1350000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>59591000</v>
+      </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" si="0">C3/1000000</f>
-        <v>0</v>
+        <v>59.591000000000001</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
+      <c r="H3">
+        <v>21843000</v>
+      </c>
       <c r="I3">
         <f t="shared" ref="I3:I66" si="1">H3/1000000</f>
-        <v>0</v>
+        <v>21.843</v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
+      <c r="M3">
+        <v>26151000</v>
+      </c>
       <c r="N3">
         <f t="shared" ref="N3:N66" si="2">M3/1000000</f>
-        <v>0</v>
+        <v>26.151</v>
       </c>
       <c r="Q3">
         <v>2</v>
       </c>
+      <c r="R3">
+        <v>1484675000</v>
+      </c>
       <c r="S3">
         <f t="shared" ref="S3:S66" si="3">R3/1000000</f>
-        <v>0</v>
+        <v>1484.675</v>
       </c>
       <c r="V3">
         <v>2</v>
       </c>
+      <c r="W3">
+        <v>2992087000</v>
+      </c>
       <c r="X3">
         <f t="shared" ref="X3:X66" si="4">W3/1000000</f>
-        <v>0</v>
+        <v>2992.087</v>
       </c>
       <c r="AA3">
         <v>2</v>
       </c>
+      <c r="AB3">
+        <v>5764200000</v>
+      </c>
       <c r="AC3">
         <f>AB3/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
+        <v>5764.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4">
+        <v>58273000</v>
+      </c>
       <c r="D4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58.273000000000003</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
+      <c r="H4">
+        <v>22290000</v>
+      </c>
       <c r="I4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.29</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
+      <c r="M4">
+        <v>22695000</v>
+      </c>
       <c r="N4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.695</v>
       </c>
       <c r="Q4">
         <v>3</v>
       </c>
+      <c r="R4">
+        <v>1473547000</v>
+      </c>
       <c r="S4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1473.547</v>
       </c>
       <c r="V4">
         <v>3</v>
       </c>
+      <c r="W4">
+        <v>2982788000</v>
+      </c>
       <c r="X4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2982.788</v>
       </c>
       <c r="AA4">
         <v>3</v>
       </c>
+      <c r="AB4">
+        <v>5810922000</v>
+      </c>
       <c r="AC4">
         <f>AB4/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
+        <v>5810.9219999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5">
+        <v>61691000</v>
+      </c>
       <c r="D5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61.691000000000003</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
+      <c r="H5">
+        <v>22471000</v>
+      </c>
       <c r="I5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.471</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
+      <c r="M5">
+        <v>88386000</v>
+      </c>
       <c r="N5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>88.385999999999996</v>
       </c>
       <c r="Q5">
         <v>4</v>
       </c>
+      <c r="R5">
+        <v>1501801000</v>
+      </c>
       <c r="S5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1501.8009999999999</v>
       </c>
       <c r="V5">
         <v>4</v>
       </c>
+      <c r="W5">
+        <v>2946229000</v>
+      </c>
       <c r="X5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2946.2289999999998</v>
       </c>
       <c r="AA5">
         <v>4</v>
       </c>
+      <c r="AB5">
+        <v>5767293000</v>
+      </c>
       <c r="AC5">
         <f>AB5/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
+        <v>5767.2929999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
+      <c r="C6">
+        <v>57671000</v>
+      </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57.670999999999999</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
+      <c r="H6">
+        <v>24731000</v>
+      </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.731000000000002</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
+      <c r="M6">
+        <v>21652000</v>
+      </c>
       <c r="N6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.652000000000001</v>
       </c>
       <c r="Q6">
         <v>5</v>
       </c>
+      <c r="R6">
+        <v>1447700000</v>
+      </c>
       <c r="S6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1447.7</v>
       </c>
       <c r="V6">
         <v>5</v>
       </c>
+      <c r="W6">
+        <v>2942275000</v>
+      </c>
       <c r="X6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2942.2750000000001</v>
       </c>
       <c r="AA6">
         <v>5</v>
       </c>
+      <c r="AB6">
+        <v>5831131000</v>
+      </c>
       <c r="AC6">
         <f>AB6/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
+        <v>5831.1310000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
+      <c r="C7">
+        <v>58974000</v>
+      </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58.973999999999997</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
+      <c r="H7">
+        <v>23027000</v>
+      </c>
       <c r="I7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.027000000000001</v>
       </c>
       <c r="L7">
         <v>6</v>
       </c>
+      <c r="M7">
+        <v>23436000</v>
+      </c>
       <c r="N7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23.436</v>
       </c>
       <c r="Q7">
         <v>6</v>
       </c>
+      <c r="R7">
+        <v>1442609000</v>
+      </c>
       <c r="S7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1442.6089999999999</v>
       </c>
       <c r="V7">
         <v>6</v>
       </c>
+      <c r="W7">
+        <v>2992393000</v>
+      </c>
       <c r="X7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2992.393</v>
       </c>
       <c r="AA7">
         <v>6</v>
       </c>
+      <c r="AB7">
+        <v>5830486000</v>
+      </c>
       <c r="AC7">
         <f t="shared" ref="AC7:AC70" si="5">AB7/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
+        <v>5830.4859999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
+      <c r="C8">
+        <v>58939000</v>
+      </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58.939</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
+      <c r="H8">
+        <v>91600000</v>
+      </c>
       <c r="I8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>91.6</v>
       </c>
       <c r="L8">
         <v>7</v>
       </c>
+      <c r="M8">
+        <v>23215000</v>
+      </c>
       <c r="N8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23.215</v>
       </c>
       <c r="Q8">
         <v>7</v>
       </c>
+      <c r="R8">
+        <v>1479173000</v>
+      </c>
       <c r="S8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1479.173</v>
       </c>
       <c r="V8">
         <v>7</v>
       </c>
+      <c r="W8">
+        <v>2998518000</v>
+      </c>
       <c r="X8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2998.518</v>
       </c>
       <c r="AA8">
         <v>7</v>
       </c>
+      <c r="AB8">
+        <v>5778374000</v>
+      </c>
       <c r="AC8">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
+        <v>5778.3739999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
+      <c r="C9">
+        <v>59869000</v>
+      </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.869</v>
       </c>
       <c r="G9">
         <v>8</v>
       </c>
+      <c r="H9">
+        <v>26056000</v>
+      </c>
       <c r="I9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.056000000000001</v>
       </c>
       <c r="L9">
         <v>8</v>
       </c>
+      <c r="M9">
+        <v>23075000</v>
+      </c>
       <c r="N9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23.074999999999999</v>
       </c>
       <c r="Q9">
         <v>8</v>
       </c>
+      <c r="R9">
+        <v>1445622000</v>
+      </c>
       <c r="S9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1445.6220000000001</v>
       </c>
       <c r="V9">
         <v>8</v>
       </c>
+      <c r="W9">
+        <v>3000556000</v>
+      </c>
       <c r="X9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000.556</v>
       </c>
       <c r="AA9">
         <v>8</v>
       </c>
+      <c r="AB9">
+        <v>5807123000</v>
+      </c>
       <c r="AC9">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
+        <v>5807.1229999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
+      <c r="C10">
+        <v>126663000</v>
+      </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>126.663</v>
       </c>
       <c r="G10">
         <v>9</v>
       </c>
+      <c r="H10">
+        <v>23669000</v>
+      </c>
       <c r="I10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.669</v>
       </c>
       <c r="L10">
         <v>9</v>
       </c>
+      <c r="M10">
+        <v>21020000</v>
+      </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.02</v>
       </c>
       <c r="Q10">
         <v>9</v>
       </c>
+      <c r="R10">
+        <v>1463611000</v>
+      </c>
       <c r="S10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1463.6110000000001</v>
       </c>
       <c r="V10">
         <v>9</v>
       </c>
+      <c r="W10">
+        <v>2971258000</v>
+      </c>
       <c r="X10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2971.2579999999998</v>
       </c>
       <c r="AA10">
         <v>9</v>
       </c>
+      <c r="AB10">
+        <v>5793828000</v>
+      </c>
       <c r="AC10">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
+        <v>5793.8280000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
+      <c r="C11">
+        <v>59505000</v>
+      </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.505000000000003</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
+      <c r="H11">
+        <v>22807000</v>
+      </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.806999999999999</v>
       </c>
       <c r="L11">
         <v>10</v>
       </c>
+      <c r="M11">
+        <v>19804000</v>
+      </c>
       <c r="N11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19.803999999999998</v>
       </c>
       <c r="Q11">
         <v>10</v>
       </c>
+      <c r="R11">
+        <v>1488312000</v>
+      </c>
       <c r="S11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1488.3119999999999</v>
       </c>
       <c r="V11">
         <v>10</v>
       </c>
+      <c r="W11">
+        <v>3037798000</v>
+      </c>
       <c r="X11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3037.7979999999998</v>
       </c>
       <c r="AA11">
         <v>10</v>
       </c>
+      <c r="AB11">
+        <v>5802101000</v>
+      </c>
       <c r="AC11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
+        <v>5802.1009999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
+      <c r="C12">
+        <v>59361000</v>
+      </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.360999999999997</v>
       </c>
       <c r="G12">
         <v>11</v>
       </c>
+      <c r="H12">
+        <v>23777000</v>
+      </c>
       <c r="I12">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.777000000000001</v>
       </c>
       <c r="L12">
         <v>11</v>
       </c>
+      <c r="M12">
+        <v>21085000</v>
+      </c>
       <c r="N12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.085000000000001</v>
       </c>
       <c r="Q12">
         <v>11</v>
       </c>
+      <c r="R12">
+        <v>1439562000</v>
+      </c>
       <c r="S12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1439.5619999999999</v>
       </c>
       <c r="V12">
         <v>11</v>
       </c>
+      <c r="W12">
+        <v>3004995000</v>
+      </c>
       <c r="X12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3004.9949999999999</v>
       </c>
       <c r="AA12">
         <v>11</v>
       </c>
+      <c r="AB12">
+        <v>5850537000</v>
+      </c>
       <c r="AC12">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
+        <v>5850.5370000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>12</v>
       </c>
+      <c r="C13">
+        <v>129424000</v>
+      </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>129.42400000000001</v>
       </c>
       <c r="G13">
         <v>12</v>
       </c>
+      <c r="H13">
+        <v>21681000</v>
+      </c>
       <c r="I13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21.681000000000001</v>
       </c>
       <c r="L13">
         <v>12</v>
       </c>
+      <c r="M13">
+        <v>20716000</v>
+      </c>
       <c r="N13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20.716000000000001</v>
       </c>
       <c r="Q13">
         <v>12</v>
       </c>
+      <c r="R13">
+        <v>1473823000</v>
+      </c>
       <c r="S13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1473.8230000000001</v>
       </c>
       <c r="V13">
         <v>12</v>
       </c>
+      <c r="W13">
+        <v>2967629000</v>
+      </c>
       <c r="X13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2967.6289999999999</v>
       </c>
       <c r="AA13">
         <v>12</v>
       </c>
+      <c r="AB13">
+        <v>5889249000</v>
+      </c>
       <c r="AC13">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
+        <v>5889.2489999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>13</v>
       </c>
+      <c r="C14">
+        <v>59756000</v>
+      </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.756</v>
       </c>
       <c r="G14">
         <v>13</v>
       </c>
+      <c r="H14">
+        <v>26031000</v>
+      </c>
       <c r="I14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.030999999999999</v>
       </c>
       <c r="L14">
         <v>13</v>
       </c>
+      <c r="M14">
+        <v>20889000</v>
+      </c>
       <c r="N14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20.888999999999999</v>
       </c>
       <c r="Q14">
         <v>13</v>
       </c>
+      <c r="R14">
+        <v>1501128000</v>
+      </c>
       <c r="S14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1501.1279999999999</v>
       </c>
       <c r="V14">
         <v>13</v>
       </c>
+      <c r="W14">
+        <v>2947624000</v>
+      </c>
       <c r="X14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2947.6239999999998</v>
       </c>
       <c r="AA14">
         <v>13</v>
       </c>
+      <c r="AB14">
+        <v>5767036000</v>
+      </c>
       <c r="AC14">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
+        <v>5767.0360000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>14</v>
       </c>
+      <c r="C15">
+        <v>71858000</v>
+      </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>71.858000000000004</v>
       </c>
       <c r="G15">
         <v>14</v>
       </c>
+      <c r="H15">
+        <v>28284000</v>
+      </c>
       <c r="I15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28.283999999999999</v>
       </c>
       <c r="L15">
         <v>14</v>
       </c>
+      <c r="M15">
+        <v>24334000</v>
+      </c>
       <c r="N15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24.334</v>
       </c>
       <c r="Q15">
         <v>14</v>
       </c>
+      <c r="R15">
+        <v>1487016000</v>
+      </c>
       <c r="S15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1487.0160000000001</v>
       </c>
       <c r="V15">
         <v>14</v>
       </c>
+      <c r="W15">
+        <v>2988441000</v>
+      </c>
       <c r="X15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2988.4409999999998</v>
       </c>
       <c r="AA15">
         <v>14</v>
       </c>
+      <c r="AB15">
+        <v>5830920000</v>
+      </c>
       <c r="AC15">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
+        <v>5830.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>15</v>
       </c>
+      <c r="C16">
+        <v>59177000</v>
+      </c>
       <c r="D16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.177</v>
       </c>
       <c r="G16">
         <v>15</v>
       </c>
+      <c r="H16">
+        <v>25009000</v>
+      </c>
       <c r="I16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25.009</v>
       </c>
       <c r="L16">
         <v>15</v>
       </c>
+      <c r="M16">
+        <v>20601000</v>
+      </c>
       <c r="N16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20.600999999999999</v>
       </c>
       <c r="Q16">
         <v>15</v>
       </c>
+      <c r="R16">
+        <v>1472426000</v>
+      </c>
       <c r="S16">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1472.4259999999999</v>
       </c>
       <c r="V16">
         <v>15</v>
       </c>
+      <c r="W16">
+        <v>2991175000</v>
+      </c>
       <c r="X16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2991.1750000000002</v>
       </c>
       <c r="AA16">
         <v>15</v>
       </c>
+      <c r="AB16">
+        <v>5831285000</v>
+      </c>
       <c r="AC16">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5831.2849999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>16</v>
       </c>
+      <c r="C17">
+        <v>60300000</v>
+      </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60.3</v>
       </c>
       <c r="G17">
         <v>16</v>
       </c>
+      <c r="H17">
+        <v>22564000</v>
+      </c>
       <c r="I17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.564</v>
       </c>
       <c r="L17">
         <v>16</v>
       </c>
+      <c r="M17">
+        <v>25047000</v>
+      </c>
       <c r="N17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25.047000000000001</v>
       </c>
       <c r="Q17">
         <v>16</v>
       </c>
+      <c r="R17">
+        <v>1474533000</v>
+      </c>
       <c r="S17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1474.5329999999999</v>
       </c>
       <c r="V17">
         <v>16</v>
       </c>
+      <c r="W17">
+        <v>2977063000</v>
+      </c>
       <c r="X17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2977.0630000000001</v>
       </c>
       <c r="AA17">
         <v>16</v>
       </c>
+      <c r="AB17">
+        <v>5842563000</v>
+      </c>
       <c r="AC17">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5842.5630000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>17</v>
       </c>
+      <c r="C18">
+        <v>58660000</v>
+      </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58.66</v>
       </c>
       <c r="G18">
         <v>17</v>
       </c>
+      <c r="H18">
+        <v>23405000</v>
+      </c>
       <c r="I18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.405000000000001</v>
       </c>
       <c r="L18">
         <v>17</v>
       </c>
+      <c r="M18">
+        <v>23089000</v>
+      </c>
       <c r="N18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23.088999999999999</v>
       </c>
       <c r="Q18">
         <v>17</v>
       </c>
+      <c r="R18">
+        <v>1471321000</v>
+      </c>
       <c r="S18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1471.3209999999999</v>
       </c>
       <c r="V18">
         <v>17</v>
       </c>
+      <c r="W18">
+        <v>2952737000</v>
+      </c>
       <c r="X18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2952.7370000000001</v>
       </c>
       <c r="AA18">
         <v>17</v>
       </c>
+      <c r="AB18">
+        <v>5864729000</v>
+      </c>
       <c r="AC18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5864.7290000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>18</v>
       </c>
+      <c r="C19">
+        <v>58183000</v>
+      </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58.183</v>
       </c>
       <c r="G19">
         <v>18</v>
       </c>
+      <c r="H19">
+        <v>22350000</v>
+      </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.35</v>
       </c>
       <c r="L19">
         <v>18</v>
       </c>
+      <c r="M19">
+        <v>21659000</v>
+      </c>
       <c r="N19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.658999999999999</v>
       </c>
       <c r="Q19">
         <v>18</v>
       </c>
+      <c r="R19">
+        <v>1469140000</v>
+      </c>
       <c r="S19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1469.14</v>
       </c>
       <c r="V19">
         <v>18</v>
       </c>
+      <c r="W19">
+        <v>3023731000</v>
+      </c>
       <c r="X19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3023.7310000000002</v>
       </c>
       <c r="AA19">
         <v>18</v>
       </c>
+      <c r="AB19">
+        <v>5733187000</v>
+      </c>
       <c r="AC19">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5733.1869999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>19</v>
       </c>
+      <c r="C20">
+        <v>58531000</v>
+      </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58.530999999999999</v>
       </c>
       <c r="G20">
         <v>19</v>
       </c>
+      <c r="H20">
+        <v>26020000</v>
+      </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.02</v>
       </c>
       <c r="L20">
         <v>19</v>
       </c>
+      <c r="M20">
+        <v>20721000</v>
+      </c>
       <c r="N20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20.721</v>
       </c>
       <c r="Q20">
         <v>19</v>
       </c>
+      <c r="R20">
+        <v>1480576000</v>
+      </c>
       <c r="S20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1480.576</v>
       </c>
       <c r="V20">
         <v>19</v>
       </c>
+      <c r="W20">
+        <v>2968022000</v>
+      </c>
       <c r="X20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2968.0219999999999</v>
       </c>
       <c r="AA20">
         <v>19</v>
       </c>
+      <c r="AB20">
+        <v>5828553000</v>
+      </c>
       <c r="AC20">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5828.5529999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>20</v>
       </c>
+      <c r="C21">
+        <v>60513000</v>
+      </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60.512999999999998</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
+      <c r="H21">
+        <v>25340000</v>
+      </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25.34</v>
       </c>
       <c r="L21">
         <v>20</v>
       </c>
+      <c r="M21">
+        <v>22022000</v>
+      </c>
       <c r="N21">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.021999999999998</v>
       </c>
       <c r="Q21">
         <v>20</v>
       </c>
+      <c r="R21">
+        <v>1470526000</v>
+      </c>
       <c r="S21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1470.5260000000001</v>
       </c>
       <c r="V21">
         <v>20</v>
       </c>
+      <c r="W21">
+        <v>2965687000</v>
+      </c>
       <c r="X21">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2965.6869999999999</v>
       </c>
       <c r="AA21">
         <v>20</v>
       </c>
+      <c r="AB21">
+        <v>5922028000</v>
+      </c>
       <c r="AC21">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5922.0280000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>21</v>
       </c>
+      <c r="C22">
+        <v>62641000</v>
+      </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62.640999999999998</v>
       </c>
       <c r="G22">
         <v>21</v>
       </c>
+      <c r="H22">
+        <v>22546000</v>
+      </c>
       <c r="I22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.545999999999999</v>
       </c>
       <c r="L22">
         <v>21</v>
       </c>
+      <c r="M22">
+        <v>21419000</v>
+      </c>
       <c r="N22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.419</v>
       </c>
       <c r="Q22">
         <v>21</v>
       </c>
+      <c r="R22">
+        <v>1469586000</v>
+      </c>
       <c r="S22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1469.586</v>
       </c>
       <c r="V22">
         <v>21</v>
       </c>
+      <c r="W22">
+        <v>3002718000</v>
+      </c>
       <c r="X22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3002.7179999999998</v>
       </c>
       <c r="AA22">
         <v>21</v>
       </c>
+      <c r="AB22">
+        <v>5861720000</v>
+      </c>
       <c r="AC22">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5861.72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>22</v>
       </c>
+      <c r="C23">
+        <v>60536000</v>
+      </c>
       <c r="D23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60.536000000000001</v>
       </c>
       <c r="G23">
         <v>22</v>
       </c>
+      <c r="H23">
+        <v>91276000</v>
+      </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>91.275999999999996</v>
       </c>
       <c r="L23">
         <v>22</v>
       </c>
+      <c r="M23">
+        <v>22906000</v>
+      </c>
       <c r="N23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.905999999999999</v>
       </c>
       <c r="Q23">
         <v>22</v>
       </c>
+      <c r="R23">
+        <v>1459657000</v>
+      </c>
       <c r="S23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1459.6569999999999</v>
       </c>
       <c r="V23">
         <v>22</v>
       </c>
+      <c r="W23">
+        <v>2980724000</v>
+      </c>
       <c r="X23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2980.7240000000002</v>
       </c>
       <c r="AA23">
         <v>22</v>
       </c>
+      <c r="AB23">
+        <v>5801611000</v>
+      </c>
       <c r="AC23">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5801.6109999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>23</v>
       </c>
+      <c r="C24">
+        <v>59727000</v>
+      </c>
       <c r="D24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.726999999999997</v>
       </c>
       <c r="G24">
         <v>23</v>
       </c>
+      <c r="H24">
+        <v>23468000</v>
+      </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.468</v>
       </c>
       <c r="L24">
         <v>23</v>
       </c>
+      <c r="M24">
+        <v>21811000</v>
+      </c>
       <c r="N24">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.811</v>
       </c>
       <c r="Q24">
         <v>23</v>
       </c>
+      <c r="R24">
+        <v>1464525000</v>
+      </c>
       <c r="S24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1464.5250000000001</v>
       </c>
       <c r="V24">
         <v>23</v>
       </c>
+      <c r="W24">
+        <v>2957111000</v>
+      </c>
       <c r="X24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2957.1109999999999</v>
       </c>
       <c r="AA24">
         <v>23</v>
       </c>
+      <c r="AB24">
+        <v>5848845000</v>
+      </c>
       <c r="AC24">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5848.8450000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>24</v>
       </c>
+      <c r="C25">
+        <v>61513000</v>
+      </c>
       <c r="D25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61.512999999999998</v>
       </c>
       <c r="G25">
         <v>24</v>
       </c>
+      <c r="H25">
+        <v>29241000</v>
+      </c>
       <c r="I25">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>29.241</v>
       </c>
       <c r="L25">
         <v>24</v>
       </c>
+      <c r="M25">
+        <v>21559000</v>
+      </c>
       <c r="N25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.559000000000001</v>
       </c>
       <c r="Q25">
         <v>24</v>
       </c>
+      <c r="R25">
+        <v>1456000000</v>
+      </c>
       <c r="S25">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1456</v>
       </c>
       <c r="V25">
         <v>24</v>
       </c>
+      <c r="W25">
+        <v>2982930000</v>
+      </c>
       <c r="X25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2982.93</v>
       </c>
       <c r="AA25">
         <v>24</v>
       </c>
+      <c r="AB25">
+        <v>5808635000</v>
+      </c>
       <c r="AC25">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5808.6350000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>25</v>
       </c>
+      <c r="C26">
+        <v>56920000</v>
+      </c>
       <c r="D26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.92</v>
       </c>
       <c r="G26">
         <v>25</v>
       </c>
+      <c r="H26">
+        <v>20131000</v>
+      </c>
       <c r="I26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.131</v>
       </c>
       <c r="L26">
         <v>25</v>
       </c>
+      <c r="M26">
+        <v>19332000</v>
+      </c>
       <c r="N26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19.332000000000001</v>
       </c>
       <c r="Q26">
         <v>25</v>
       </c>
+      <c r="R26">
+        <v>1485983000</v>
+      </c>
       <c r="S26">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1485.9829999999999</v>
       </c>
       <c r="V26">
         <v>25</v>
       </c>
+      <c r="W26">
+        <v>2979538000</v>
+      </c>
       <c r="X26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2979.538</v>
       </c>
       <c r="AA26">
         <v>25</v>
       </c>
+      <c r="AB26">
+        <v>5795979000</v>
+      </c>
       <c r="AC26">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5795.9790000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>26</v>
       </c>
+      <c r="C27">
+        <v>64665000</v>
+      </c>
       <c r="D27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64.665000000000006</v>
       </c>
       <c r="G27">
         <v>26</v>
       </c>
+      <c r="H27">
+        <v>22848000</v>
+      </c>
       <c r="I27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.847999999999999</v>
       </c>
       <c r="L27">
         <v>26</v>
       </c>
+      <c r="M27">
+        <v>19698000</v>
+      </c>
       <c r="N27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19.698</v>
       </c>
       <c r="Q27">
         <v>26</v>
       </c>
+      <c r="R27">
+        <v>1425165000</v>
+      </c>
       <c r="S27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1425.165</v>
       </c>
       <c r="V27">
         <v>26</v>
       </c>
+      <c r="W27">
+        <v>2977868000</v>
+      </c>
       <c r="X27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2977.8679999999999</v>
       </c>
       <c r="AA27">
         <v>26</v>
       </c>
+      <c r="AB27">
+        <v>5870825000</v>
+      </c>
       <c r="AC27">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5870.8249999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>27</v>
       </c>
+      <c r="C28">
+        <v>58954000</v>
+      </c>
       <c r="D28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58.954000000000001</v>
       </c>
       <c r="G28">
         <v>27</v>
       </c>
+      <c r="H28">
+        <v>20777000</v>
+      </c>
       <c r="I28">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.777000000000001</v>
       </c>
       <c r="L28">
         <v>27</v>
       </c>
+      <c r="M28">
+        <v>21783000</v>
+      </c>
       <c r="N28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.783000000000001</v>
       </c>
       <c r="Q28">
         <v>27</v>
       </c>
+      <c r="R28">
+        <v>1454047000</v>
+      </c>
       <c r="S28">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1454.047</v>
       </c>
       <c r="V28">
         <v>27</v>
       </c>
+      <c r="W28">
+        <v>2985354000</v>
+      </c>
       <c r="X28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2985.3539999999998</v>
       </c>
       <c r="AA28">
         <v>27</v>
       </c>
+      <c r="AB28">
+        <v>5851843000</v>
+      </c>
       <c r="AC28">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5851.8429999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>28</v>
       </c>
+      <c r="C29">
+        <v>58863000</v>
+      </c>
       <c r="D29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58.863</v>
       </c>
       <c r="G29">
         <v>28</v>
       </c>
+      <c r="H29">
+        <v>23047000</v>
+      </c>
       <c r="I29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.047000000000001</v>
       </c>
       <c r="L29">
         <v>28</v>
       </c>
+      <c r="M29">
+        <v>21465000</v>
+      </c>
       <c r="N29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.465</v>
       </c>
       <c r="Q29">
         <v>28</v>
       </c>
+      <c r="R29">
+        <v>1455675000</v>
+      </c>
       <c r="S29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1455.675</v>
       </c>
       <c r="V29">
         <v>28</v>
       </c>
+      <c r="W29">
+        <v>3028930000</v>
+      </c>
       <c r="X29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3028.93</v>
       </c>
       <c r="AA29">
         <v>28</v>
       </c>
+      <c r="AB29">
+        <v>5800719000</v>
+      </c>
       <c r="AC29">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5800.7190000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>29</v>
       </c>
+      <c r="C30">
+        <v>58613000</v>
+      </c>
       <c r="D30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58.613</v>
       </c>
       <c r="G30">
         <v>29</v>
       </c>
+      <c r="H30">
+        <v>22938000</v>
+      </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.937999999999999</v>
       </c>
       <c r="L30">
         <v>29</v>
       </c>
+      <c r="M30">
+        <v>20539000</v>
+      </c>
       <c r="N30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20.539000000000001</v>
       </c>
       <c r="Q30">
         <v>29</v>
       </c>
+      <c r="R30">
+        <v>1464824000</v>
+      </c>
       <c r="S30">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1464.8240000000001</v>
       </c>
       <c r="V30">
         <v>29</v>
       </c>
+      <c r="W30">
+        <v>2984219000</v>
+      </c>
       <c r="X30">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2984.2190000000001</v>
       </c>
       <c r="AA30">
         <v>29</v>
       </c>
+      <c r="AB30">
+        <v>5783025000</v>
+      </c>
       <c r="AC30">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5783.0249999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>30</v>
       </c>
+      <c r="C31">
+        <v>59756000</v>
+      </c>
       <c r="D31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.756</v>
       </c>
       <c r="G31">
         <v>30</v>
       </c>
+      <c r="H31">
+        <v>23317000</v>
+      </c>
       <c r="I31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.317</v>
       </c>
       <c r="L31">
         <v>30</v>
       </c>
+      <c r="M31">
+        <v>21924000</v>
+      </c>
       <c r="N31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.923999999999999</v>
       </c>
       <c r="Q31">
         <v>30</v>
       </c>
+      <c r="R31">
+        <v>1464292000</v>
+      </c>
       <c r="S31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1464.2919999999999</v>
       </c>
       <c r="V31">
         <v>30</v>
       </c>
+      <c r="W31">
+        <v>2970885000</v>
+      </c>
       <c r="X31">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2970.8850000000002</v>
       </c>
       <c r="AA31">
         <v>30</v>
       </c>
+      <c r="AB31">
+        <v>5833940000</v>
+      </c>
       <c r="AC31">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5833.94</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>31</v>
       </c>
+      <c r="C32">
+        <v>60171000</v>
+      </c>
       <c r="D32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60.170999999999999</v>
       </c>
       <c r="G32">
         <v>31</v>
       </c>
+      <c r="H32">
+        <v>23785000</v>
+      </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.785</v>
       </c>
       <c r="L32">
         <v>31</v>
       </c>
+      <c r="M32">
+        <v>22224000</v>
+      </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.224</v>
       </c>
       <c r="Q32">
         <v>31</v>
       </c>
+      <c r="R32">
+        <v>1470473000</v>
+      </c>
       <c r="S32">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1470.473</v>
       </c>
       <c r="V32">
         <v>31</v>
       </c>
+      <c r="W32">
+        <v>2977604000</v>
+      </c>
       <c r="X32">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2977.6039999999998</v>
       </c>
       <c r="AA32">
         <v>31</v>
       </c>
+      <c r="AB32">
+        <v>5894199000</v>
+      </c>
       <c r="AC32">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5894.1989999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>32</v>
       </c>
+      <c r="C33">
+        <v>58248000</v>
+      </c>
       <c r="D33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58.247999999999998</v>
       </c>
       <c r="G33">
         <v>32</v>
       </c>
+      <c r="H33">
+        <v>23067000</v>
+      </c>
       <c r="I33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.067</v>
       </c>
       <c r="L33">
         <v>32</v>
       </c>
+      <c r="M33">
+        <v>22134000</v>
+      </c>
       <c r="N33">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.134</v>
       </c>
       <c r="Q33">
         <v>32</v>
       </c>
+      <c r="R33">
+        <v>1476752000</v>
+      </c>
       <c r="S33">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1476.752</v>
       </c>
       <c r="V33">
         <v>32</v>
       </c>
+      <c r="W33">
+        <v>3035512000</v>
+      </c>
       <c r="X33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3035.5120000000002</v>
       </c>
       <c r="AA33">
         <v>32</v>
       </c>
+      <c r="AB33">
+        <v>5871656000</v>
+      </c>
       <c r="AC33">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5871.6559999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>33</v>
       </c>
+      <c r="C34">
+        <v>60429000</v>
+      </c>
       <c r="D34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60.429000000000002</v>
       </c>
       <c r="G34">
         <v>33</v>
       </c>
+      <c r="H34">
+        <v>21831000</v>
+      </c>
       <c r="I34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21.831</v>
       </c>
       <c r="L34">
         <v>33</v>
       </c>
+      <c r="M34">
+        <v>22613000</v>
+      </c>
       <c r="N34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.613</v>
       </c>
       <c r="Q34">
         <v>33</v>
       </c>
+      <c r="R34">
+        <v>1480015000</v>
+      </c>
       <c r="S34">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1480.0150000000001</v>
       </c>
       <c r="V34">
         <v>33</v>
       </c>
+      <c r="W34">
+        <v>2992268000</v>
+      </c>
       <c r="X34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2992.268</v>
       </c>
       <c r="AA34">
         <v>33</v>
       </c>
+      <c r="AB34">
+        <v>5865188000</v>
+      </c>
       <c r="AC34">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5865.1880000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>34</v>
       </c>
+      <c r="C35">
+        <v>57891000</v>
+      </c>
       <c r="D35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57.890999999999998</v>
       </c>
       <c r="G35">
         <v>34</v>
       </c>
+      <c r="H35">
+        <v>22439000</v>
+      </c>
       <c r="I35">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.439</v>
       </c>
       <c r="L35">
         <v>34</v>
       </c>
+      <c r="M35">
+        <v>21799000</v>
+      </c>
       <c r="N35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.798999999999999</v>
       </c>
       <c r="Q35">
         <v>34</v>
       </c>
+      <c r="R35">
+        <v>1463579000</v>
+      </c>
       <c r="S35">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1463.579</v>
       </c>
       <c r="V35">
         <v>34</v>
       </c>
+      <c r="W35">
+        <v>2992503000</v>
+      </c>
       <c r="X35">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2992.5030000000002</v>
       </c>
       <c r="AA35">
         <v>34</v>
       </c>
+      <c r="AB35">
+        <v>5841918000</v>
+      </c>
       <c r="AC35">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5841.9179999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>35</v>
       </c>
+      <c r="C36">
+        <v>60589000</v>
+      </c>
       <c r="D36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60.588999999999999</v>
       </c>
       <c r="G36">
         <v>35</v>
       </c>
+      <c r="H36">
+        <v>25609000</v>
+      </c>
       <c r="I36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25.609000000000002</v>
       </c>
       <c r="L36">
         <v>35</v>
       </c>
+      <c r="M36">
+        <v>23945000</v>
+      </c>
       <c r="N36">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23.945</v>
       </c>
       <c r="Q36">
         <v>35</v>
       </c>
+      <c r="R36">
+        <v>1463434000</v>
+      </c>
       <c r="S36">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1463.434</v>
       </c>
       <c r="V36">
         <v>35</v>
       </c>
+      <c r="W36">
+        <v>3005584000</v>
+      </c>
       <c r="X36">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3005.5839999999998</v>
       </c>
       <c r="AA36">
         <v>35</v>
       </c>
+      <c r="AB36">
+        <v>5838705000</v>
+      </c>
       <c r="AC36">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5838.7049999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>36</v>
       </c>
+      <c r="C37">
+        <v>58495000</v>
+      </c>
       <c r="D37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58.494999999999997</v>
       </c>
       <c r="G37">
         <v>36</v>
       </c>
+      <c r="H37">
+        <v>23527000</v>
+      </c>
       <c r="I37">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.527000000000001</v>
       </c>
       <c r="L37">
         <v>36</v>
       </c>
+      <c r="M37">
+        <v>22508000</v>
+      </c>
       <c r="N37">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.507999999999999</v>
       </c>
       <c r="Q37">
         <v>36</v>
       </c>
+      <c r="R37">
+        <v>1462434000</v>
+      </c>
       <c r="S37">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1462.434</v>
       </c>
       <c r="V37">
         <v>36</v>
       </c>
+      <c r="W37">
+        <v>2969554000</v>
+      </c>
       <c r="X37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2969.5540000000001</v>
       </c>
       <c r="AA37">
         <v>36</v>
       </c>
+      <c r="AB37">
+        <v>5869609000</v>
+      </c>
       <c r="AC37">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5869.6090000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>37</v>
       </c>
+      <c r="C38">
+        <v>59357000</v>
+      </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.356999999999999</v>
       </c>
       <c r="G38">
         <v>37</v>
       </c>
+      <c r="H38">
+        <v>22458000</v>
+      </c>
       <c r="I38">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.457999999999998</v>
       </c>
       <c r="L38">
         <v>37</v>
       </c>
+      <c r="M38">
+        <v>21698000</v>
+      </c>
       <c r="N38">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.698</v>
       </c>
       <c r="Q38">
         <v>37</v>
       </c>
+      <c r="R38">
+        <v>1476085000</v>
+      </c>
       <c r="S38">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1476.085</v>
       </c>
       <c r="V38">
         <v>37</v>
       </c>
+      <c r="W38">
+        <v>2977562000</v>
+      </c>
       <c r="X38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2977.5619999999999</v>
       </c>
       <c r="AA38">
         <v>37</v>
       </c>
+      <c r="AB38">
+        <v>5878026000</v>
+      </c>
       <c r="AC38">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5878.0259999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>38</v>
       </c>
+      <c r="C39">
+        <v>58909000</v>
+      </c>
       <c r="D39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58.908999999999999</v>
       </c>
       <c r="G39">
         <v>38</v>
       </c>
+      <c r="H39">
+        <v>22536000</v>
+      </c>
       <c r="I39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.536000000000001</v>
       </c>
       <c r="L39">
         <v>38</v>
       </c>
+      <c r="M39">
+        <v>21447000</v>
+      </c>
       <c r="N39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.446999999999999</v>
       </c>
       <c r="Q39">
         <v>38</v>
       </c>
+      <c r="R39">
+        <v>1465076000</v>
+      </c>
       <c r="S39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1465.076</v>
       </c>
       <c r="V39">
         <v>38</v>
       </c>
+      <c r="W39">
+        <v>3016536000</v>
+      </c>
       <c r="X39">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3016.5360000000001</v>
       </c>
       <c r="AA39">
         <v>38</v>
       </c>
+      <c r="AB39">
+        <v>5820112000</v>
+      </c>
       <c r="AC39">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5820.1120000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>39</v>
       </c>
+      <c r="C40">
+        <v>59214000</v>
+      </c>
       <c r="D40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.213999999999999</v>
       </c>
       <c r="G40">
         <v>39</v>
       </c>
+      <c r="H40">
+        <v>23529000</v>
+      </c>
       <c r="I40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.529</v>
       </c>
       <c r="L40">
         <v>39</v>
       </c>
+      <c r="M40">
+        <v>27257000</v>
+      </c>
       <c r="N40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27.257000000000001</v>
       </c>
       <c r="Q40">
         <v>39</v>
       </c>
+      <c r="R40">
+        <v>1459281000</v>
+      </c>
       <c r="S40">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1459.2809999999999</v>
       </c>
       <c r="V40">
         <v>39</v>
       </c>
+      <c r="W40">
+        <v>3008363000</v>
+      </c>
       <c r="X40">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3008.3629999999998</v>
       </c>
       <c r="AA40">
         <v>39</v>
       </c>
+      <c r="AB40">
+        <v>5808898000</v>
+      </c>
       <c r="AC40">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5808.8980000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>40</v>
       </c>
+      <c r="C41">
+        <v>59666000</v>
+      </c>
       <c r="D41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.665999999999997</v>
       </c>
       <c r="G41">
         <v>40</v>
       </c>
+      <c r="H41">
+        <v>24143000</v>
+      </c>
       <c r="I41">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.143000000000001</v>
       </c>
       <c r="L41">
         <v>40</v>
       </c>
+      <c r="M41">
+        <v>23585000</v>
+      </c>
       <c r="N41">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23.585000000000001</v>
       </c>
       <c r="Q41">
         <v>40</v>
       </c>
+      <c r="R41">
+        <v>1473523000</v>
+      </c>
       <c r="S41">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1473.5229999999999</v>
       </c>
       <c r="V41">
         <v>40</v>
       </c>
+      <c r="W41">
+        <v>2943519000</v>
+      </c>
       <c r="X41">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2943.5189999999998</v>
       </c>
       <c r="AA41">
         <v>40</v>
       </c>
+      <c r="AB41">
+        <v>5806159000</v>
+      </c>
       <c r="AC41">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5806.1589999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>41</v>
       </c>
+      <c r="C42">
+        <v>60847000</v>
+      </c>
       <c r="D42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60.847000000000001</v>
       </c>
       <c r="G42">
         <v>41</v>
       </c>
+      <c r="H42">
+        <v>22422000</v>
+      </c>
       <c r="I42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.422000000000001</v>
       </c>
       <c r="L42">
         <v>41</v>
       </c>
+      <c r="M42">
+        <v>22299000</v>
+      </c>
       <c r="N42">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.298999999999999</v>
       </c>
       <c r="Q42">
         <v>41</v>
       </c>
+      <c r="R42">
+        <v>1505883000</v>
+      </c>
       <c r="S42">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1505.883</v>
       </c>
       <c r="V42">
         <v>41</v>
       </c>
+      <c r="W42">
+        <v>3017197000</v>
+      </c>
       <c r="X42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3017.1970000000001</v>
       </c>
       <c r="AA42">
         <v>41</v>
       </c>
+      <c r="AB42">
+        <v>5813194000</v>
+      </c>
       <c r="AC42">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5813.1940000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>42</v>
       </c>
+      <c r="C43">
+        <v>58102000</v>
+      </c>
       <c r="D43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58.101999999999997</v>
       </c>
       <c r="G43">
         <v>42</v>
       </c>
+      <c r="H43">
+        <v>22887000</v>
+      </c>
       <c r="I43">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.887</v>
       </c>
       <c r="L43">
         <v>42</v>
       </c>
+      <c r="M43">
+        <v>22903000</v>
+      </c>
       <c r="N43">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.902999999999999</v>
       </c>
       <c r="Q43">
         <v>42</v>
       </c>
+      <c r="R43">
+        <v>1478595000</v>
+      </c>
       <c r="S43">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1478.595</v>
       </c>
       <c r="V43">
         <v>42</v>
       </c>
+      <c r="W43">
+        <v>2978459000</v>
+      </c>
       <c r="X43">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2978.4589999999998</v>
       </c>
       <c r="AA43">
         <v>42</v>
       </c>
+      <c r="AB43">
+        <v>5869643000</v>
+      </c>
       <c r="AC43">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5869.643</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>43</v>
       </c>
+      <c r="C44">
+        <v>60671000</v>
+      </c>
       <c r="D44">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60.670999999999999</v>
       </c>
       <c r="G44">
         <v>43</v>
       </c>
+      <c r="H44">
+        <v>31271000</v>
+      </c>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31.271000000000001</v>
       </c>
       <c r="L44">
         <v>43</v>
       </c>
+      <c r="M44">
+        <v>21521000</v>
+      </c>
       <c r="N44">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.521000000000001</v>
       </c>
       <c r="Q44">
         <v>43</v>
       </c>
+      <c r="R44">
+        <v>1484343000</v>
+      </c>
       <c r="S44">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1484.3430000000001</v>
       </c>
       <c r="V44">
         <v>43</v>
       </c>
+      <c r="W44">
+        <v>2971446000</v>
+      </c>
       <c r="X44">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2971.4459999999999</v>
       </c>
       <c r="AA44">
         <v>43</v>
       </c>
+      <c r="AB44">
+        <v>6164545000</v>
+      </c>
       <c r="AC44">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.45">
+        <v>6164.5450000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>44</v>
       </c>
+      <c r="C45">
+        <v>56409000</v>
+      </c>
       <c r="D45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.408999999999999</v>
       </c>
       <c r="G45">
         <v>44</v>
       </c>
+      <c r="H45">
+        <v>25922000</v>
+      </c>
       <c r="I45">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25.922000000000001</v>
       </c>
       <c r="L45">
         <v>44</v>
       </c>
+      <c r="M45">
+        <v>22002000</v>
+      </c>
       <c r="N45">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.001999999999999</v>
       </c>
       <c r="Q45">
         <v>44</v>
       </c>
+      <c r="R45">
+        <v>1511050000</v>
+      </c>
       <c r="S45">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1511.05</v>
       </c>
       <c r="V45">
         <v>44</v>
       </c>
+      <c r="W45">
+        <v>2962749000</v>
+      </c>
       <c r="X45">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2962.7489999999998</v>
       </c>
       <c r="AA45">
         <v>44</v>
       </c>
+      <c r="AB45">
+        <v>5825278000</v>
+      </c>
       <c r="AC45">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5825.2780000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>45</v>
       </c>
+      <c r="C46">
+        <v>59799000</v>
+      </c>
       <c r="D46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.798999999999999</v>
       </c>
       <c r="G46">
         <v>45</v>
       </c>
+      <c r="H46">
+        <v>26585000</v>
+      </c>
       <c r="I46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.585000000000001</v>
       </c>
       <c r="L46">
         <v>45</v>
       </c>
+      <c r="M46">
+        <v>21057000</v>
+      </c>
       <c r="N46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.056999999999999</v>
       </c>
       <c r="Q46">
         <v>45</v>
       </c>
+      <c r="R46">
+        <v>1452477000</v>
+      </c>
       <c r="S46">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1452.4770000000001</v>
       </c>
       <c r="V46">
         <v>45</v>
       </c>
+      <c r="W46">
+        <v>2946518000</v>
+      </c>
       <c r="X46">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2946.518</v>
       </c>
       <c r="AA46">
         <v>45</v>
       </c>
+      <c r="AB46">
+        <v>5862564000</v>
+      </c>
       <c r="AC46">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5862.5640000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>46</v>
       </c>
+      <c r="C47">
+        <v>61666000</v>
+      </c>
       <c r="D47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61.665999999999997</v>
       </c>
       <c r="G47">
         <v>46</v>
       </c>
+      <c r="H47">
+        <v>26055000</v>
+      </c>
       <c r="I47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26.055</v>
       </c>
       <c r="L47">
         <v>46</v>
       </c>
+      <c r="M47">
+        <v>19941000</v>
+      </c>
       <c r="N47">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19.940999999999999</v>
       </c>
       <c r="Q47">
         <v>46</v>
       </c>
+      <c r="R47">
+        <v>1440347000</v>
+      </c>
       <c r="S47">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1440.347</v>
       </c>
       <c r="V47">
         <v>46</v>
       </c>
+      <c r="W47">
+        <v>2957312000</v>
+      </c>
       <c r="X47">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2957.3119999999999</v>
       </c>
       <c r="AA47">
         <v>46</v>
       </c>
+      <c r="AB47">
+        <v>5783728000</v>
+      </c>
       <c r="AC47">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5783.7280000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>47</v>
       </c>
+      <c r="C48">
+        <v>57110000</v>
+      </c>
       <c r="D48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57.11</v>
       </c>
       <c r="G48">
         <v>47</v>
       </c>
+      <c r="H48">
+        <v>25329000</v>
+      </c>
       <c r="I48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25.329000000000001</v>
       </c>
       <c r="L48">
         <v>47</v>
       </c>
+      <c r="M48">
+        <v>19990000</v>
+      </c>
       <c r="N48">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="Q48">
         <v>47</v>
       </c>
+      <c r="R48">
+        <v>1476424000</v>
+      </c>
       <c r="S48">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1476.424</v>
       </c>
       <c r="V48">
         <v>47</v>
       </c>
+      <c r="W48">
+        <v>2949090000</v>
+      </c>
       <c r="X48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2949.09</v>
       </c>
       <c r="AA48">
         <v>47</v>
       </c>
+      <c r="AB48">
+        <v>5780447000</v>
+      </c>
       <c r="AC48">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5780.4470000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>48</v>
       </c>
+      <c r="C49">
+        <v>61820000</v>
+      </c>
       <c r="D49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>61.82</v>
       </c>
       <c r="G49">
         <v>48</v>
       </c>
+      <c r="H49">
+        <v>25499000</v>
+      </c>
       <c r="I49">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25.498999999999999</v>
       </c>
       <c r="L49">
         <v>48</v>
       </c>
+      <c r="M49">
+        <v>20033000</v>
+      </c>
       <c r="N49">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20.033000000000001</v>
       </c>
       <c r="Q49">
         <v>48</v>
       </c>
+      <c r="R49">
+        <v>1424419000</v>
+      </c>
       <c r="S49">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1424.4190000000001</v>
       </c>
       <c r="V49">
         <v>48</v>
       </c>
+      <c r="W49">
+        <v>2958186000</v>
+      </c>
       <c r="X49">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2958.1860000000001</v>
       </c>
       <c r="AA49">
         <v>48</v>
       </c>
+      <c r="AB49">
+        <v>5867133000</v>
+      </c>
       <c r="AC49">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5867.1329999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>49</v>
       </c>
+      <c r="C50">
+        <v>56590000</v>
+      </c>
       <c r="D50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.59</v>
       </c>
       <c r="G50">
         <v>49</v>
       </c>
+      <c r="H50">
+        <v>24277000</v>
+      </c>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.277000000000001</v>
       </c>
       <c r="L50">
         <v>49</v>
       </c>
+      <c r="M50">
+        <v>19712000</v>
+      </c>
       <c r="N50">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>19.712</v>
       </c>
       <c r="Q50">
         <v>49</v>
       </c>
+      <c r="R50">
+        <v>1437022000</v>
+      </c>
       <c r="S50">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1437.0219999999999</v>
       </c>
       <c r="V50">
         <v>49</v>
       </c>
+      <c r="W50">
+        <v>2933719000</v>
+      </c>
       <c r="X50">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2933.7190000000001</v>
       </c>
       <c r="AA50">
         <v>49</v>
       </c>
+      <c r="AB50">
+        <v>5876723000</v>
+      </c>
       <c r="AC50">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5876.723</v>
+      </c>
+    </row>
+    <row r="51" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>50</v>
       </c>
+      <c r="C51">
+        <v>62069000</v>
+      </c>
       <c r="D51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62.069000000000003</v>
       </c>
       <c r="G51">
         <v>50</v>
       </c>
+      <c r="H51">
+        <v>22252000</v>
+      </c>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.251999999999999</v>
       </c>
       <c r="L51">
         <v>50</v>
       </c>
+      <c r="M51">
+        <v>21650000</v>
+      </c>
       <c r="N51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.65</v>
       </c>
       <c r="Q51">
         <v>50</v>
       </c>
+      <c r="R51">
+        <v>1429773000</v>
+      </c>
       <c r="S51">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1429.7729999999999</v>
       </c>
       <c r="V51">
         <v>50</v>
       </c>
+      <c r="W51">
+        <v>2944899000</v>
+      </c>
       <c r="X51">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2944.8989999999999</v>
       </c>
       <c r="AA51">
         <v>50</v>
       </c>
+      <c r="AB51">
+        <v>5799827000</v>
+      </c>
       <c r="AC51">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5799.8270000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>51</v>
       </c>
+      <c r="C52">
+        <v>60756000</v>
+      </c>
       <c r="D52">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60.756</v>
       </c>
       <c r="G52">
         <v>51</v>
       </c>
+      <c r="H52">
+        <v>21056000</v>
+      </c>
       <c r="I52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21.056000000000001</v>
       </c>
       <c r="L52">
         <v>51</v>
       </c>
+      <c r="M52">
+        <v>22884000</v>
+      </c>
       <c r="N52">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.884</v>
       </c>
       <c r="Q52">
         <v>51</v>
       </c>
+      <c r="R52">
+        <v>1428637000</v>
+      </c>
       <c r="S52">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1428.6369999999999</v>
       </c>
       <c r="V52">
         <v>51</v>
       </c>
+      <c r="W52">
+        <v>2980646000</v>
+      </c>
       <c r="X52">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2980.6460000000002</v>
       </c>
       <c r="AA52">
         <v>51</v>
       </c>
+      <c r="AB52">
+        <v>5875954000</v>
+      </c>
       <c r="AC52">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5875.9539999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>52</v>
       </c>
+      <c r="C53">
+        <v>59957000</v>
+      </c>
       <c r="D53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.957000000000001</v>
       </c>
       <c r="G53">
         <v>52</v>
       </c>
+      <c r="H53">
+        <v>24894000</v>
+      </c>
       <c r="I53">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.893999999999998</v>
       </c>
       <c r="L53">
         <v>52</v>
       </c>
+      <c r="M53">
+        <v>25104000</v>
+      </c>
       <c r="N53">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>25.103999999999999</v>
       </c>
       <c r="Q53">
         <v>52</v>
       </c>
+      <c r="R53">
+        <v>1435498000</v>
+      </c>
       <c r="S53">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1435.498</v>
       </c>
       <c r="V53">
         <v>52</v>
       </c>
+      <c r="W53">
+        <v>3002611000</v>
+      </c>
       <c r="X53">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3002.6109999999999</v>
       </c>
       <c r="AA53">
         <v>52</v>
       </c>
+      <c r="AB53">
+        <v>5906743000</v>
+      </c>
       <c r="AC53">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5906.7430000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>53</v>
       </c>
+      <c r="C54">
+        <v>57596000</v>
+      </c>
       <c r="D54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>57.595999999999997</v>
       </c>
       <c r="G54">
         <v>53</v>
       </c>
+      <c r="H54">
+        <v>24475000</v>
+      </c>
       <c r="I54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.475000000000001</v>
       </c>
       <c r="L54">
         <v>53</v>
       </c>
+      <c r="M54">
+        <v>21384000</v>
+      </c>
       <c r="N54">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.384</v>
       </c>
       <c r="Q54">
         <v>53</v>
       </c>
+      <c r="R54">
+        <v>1551430000</v>
+      </c>
       <c r="S54">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1551.43</v>
       </c>
       <c r="V54">
         <v>53</v>
       </c>
+      <c r="W54">
+        <v>3001207000</v>
+      </c>
       <c r="X54">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3001.2069999999999</v>
       </c>
       <c r="AA54">
         <v>53</v>
       </c>
+      <c r="AB54">
+        <v>5783150000</v>
+      </c>
       <c r="AC54">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5783.15</v>
+      </c>
+    </row>
+    <row r="55" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>54</v>
       </c>
+      <c r="C55">
+        <v>59545000</v>
+      </c>
       <c r="D55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.545000000000002</v>
       </c>
       <c r="G55">
         <v>54</v>
       </c>
+      <c r="H55">
+        <v>24477000</v>
+      </c>
       <c r="I55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.477</v>
       </c>
       <c r="L55">
         <v>54</v>
       </c>
+      <c r="M55">
+        <v>22831000</v>
+      </c>
       <c r="N55">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.831</v>
       </c>
       <c r="Q55">
         <v>54</v>
       </c>
+      <c r="R55">
+        <v>1520542000</v>
+      </c>
       <c r="S55">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1520.5419999999999</v>
       </c>
       <c r="V55">
         <v>54</v>
       </c>
+      <c r="W55">
+        <v>2976658000</v>
+      </c>
       <c r="X55">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2976.6579999999999</v>
       </c>
       <c r="AA55">
         <v>54</v>
       </c>
+      <c r="AB55">
+        <v>5822462000</v>
+      </c>
       <c r="AC55">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5822.4620000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>55</v>
       </c>
+      <c r="C56">
+        <v>63830000</v>
+      </c>
       <c r="D56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63.83</v>
       </c>
       <c r="G56">
         <v>55</v>
       </c>
+      <c r="H56">
+        <v>22895000</v>
+      </c>
       <c r="I56">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.895</v>
       </c>
       <c r="L56">
         <v>55</v>
       </c>
+      <c r="M56">
+        <v>22575000</v>
+      </c>
       <c r="N56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.574999999999999</v>
       </c>
       <c r="Q56">
         <v>55</v>
       </c>
+      <c r="R56">
+        <v>1591118000</v>
+      </c>
       <c r="S56">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1591.1179999999999</v>
       </c>
       <c r="V56">
         <v>55</v>
       </c>
+      <c r="W56">
+        <v>3012957000</v>
+      </c>
       <c r="X56">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3012.9569999999999</v>
       </c>
       <c r="AA56">
         <v>55</v>
       </c>
+      <c r="AB56">
+        <v>5915565000</v>
+      </c>
       <c r="AC56">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5915.5649999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>56</v>
       </c>
+      <c r="C57">
+        <v>58455000</v>
+      </c>
       <c r="D57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58.454999999999998</v>
       </c>
       <c r="G57">
         <v>56</v>
       </c>
+      <c r="H57">
+        <v>24944000</v>
+      </c>
       <c r="I57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.943999999999999</v>
       </c>
       <c r="L57">
         <v>56</v>
       </c>
+      <c r="M57">
+        <v>21504000</v>
+      </c>
       <c r="N57">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.504000000000001</v>
       </c>
       <c r="Q57">
         <v>56</v>
       </c>
+      <c r="R57">
+        <v>1530453000</v>
+      </c>
       <c r="S57">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1530.453</v>
       </c>
       <c r="V57">
         <v>56</v>
       </c>
+      <c r="W57">
+        <v>3002019000</v>
+      </c>
       <c r="X57">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3002.0189999999998</v>
       </c>
       <c r="AA57">
         <v>56</v>
       </c>
+      <c r="AB57">
+        <v>5769631000</v>
+      </c>
       <c r="AC57">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5769.6310000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>57</v>
       </c>
+      <c r="C58">
+        <v>59079000</v>
+      </c>
       <c r="D58">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.079000000000001</v>
       </c>
       <c r="G58">
         <v>57</v>
       </c>
+      <c r="H58">
+        <v>22832000</v>
+      </c>
       <c r="I58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.832000000000001</v>
       </c>
       <c r="L58">
         <v>57</v>
       </c>
+      <c r="M58">
+        <v>22119000</v>
+      </c>
       <c r="N58">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.119</v>
       </c>
       <c r="Q58">
         <v>57</v>
       </c>
+      <c r="R58">
+        <v>1441248000</v>
+      </c>
       <c r="S58">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1441.248</v>
       </c>
       <c r="V58">
         <v>57</v>
       </c>
+      <c r="W58">
+        <v>2938169000</v>
+      </c>
       <c r="X58">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2938.1689999999999</v>
       </c>
       <c r="AA58">
         <v>57</v>
       </c>
+      <c r="AB58">
+        <v>5850907000</v>
+      </c>
       <c r="AC58">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5850.9070000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>58</v>
       </c>
+      <c r="C59">
+        <v>59145000</v>
+      </c>
       <c r="D59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.145000000000003</v>
       </c>
       <c r="G59">
         <v>58</v>
       </c>
+      <c r="H59">
+        <v>31908000</v>
+      </c>
       <c r="I59">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31.908000000000001</v>
       </c>
       <c r="L59">
         <v>58</v>
       </c>
+      <c r="M59">
+        <v>21089000</v>
+      </c>
       <c r="N59">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.088999999999999</v>
       </c>
       <c r="Q59">
         <v>58</v>
       </c>
+      <c r="R59">
+        <v>1462740000</v>
+      </c>
       <c r="S59">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1462.74</v>
       </c>
       <c r="V59">
         <v>58</v>
       </c>
+      <c r="W59">
+        <v>2962261000</v>
+      </c>
       <c r="X59">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2962.261</v>
       </c>
       <c r="AA59">
         <v>58</v>
       </c>
+      <c r="AB59">
+        <v>5816828000</v>
+      </c>
       <c r="AC59">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5816.8280000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>59</v>
       </c>
+      <c r="C60">
+        <v>60085000</v>
+      </c>
       <c r="D60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60.085000000000001</v>
       </c>
       <c r="G60">
         <v>59</v>
       </c>
+      <c r="H60">
+        <v>22228000</v>
+      </c>
       <c r="I60">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22.228000000000002</v>
       </c>
       <c r="L60">
         <v>59</v>
       </c>
+      <c r="M60">
+        <v>22865000</v>
+      </c>
       <c r="N60">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.864999999999998</v>
       </c>
       <c r="Q60">
         <v>59</v>
       </c>
+      <c r="R60">
+        <v>1479785000</v>
+      </c>
       <c r="S60">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1479.7850000000001</v>
       </c>
       <c r="V60">
         <v>59</v>
       </c>
+      <c r="W60">
+        <v>2972722000</v>
+      </c>
       <c r="X60">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2972.7220000000002</v>
       </c>
       <c r="AA60">
         <v>59</v>
       </c>
+      <c r="AB60">
+        <v>5845295000</v>
+      </c>
       <c r="AC60">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5845.2950000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>60</v>
       </c>
+      <c r="C61">
+        <v>59902000</v>
+      </c>
       <c r="D61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.902000000000001</v>
       </c>
       <c r="G61">
         <v>60</v>
       </c>
+      <c r="H61">
+        <v>20941000</v>
+      </c>
       <c r="I61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.940999999999999</v>
       </c>
       <c r="L61">
         <v>60</v>
       </c>
+      <c r="M61">
+        <v>21889000</v>
+      </c>
       <c r="N61">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.888999999999999</v>
       </c>
       <c r="Q61">
         <v>60</v>
       </c>
+      <c r="R61">
+        <v>1459004000</v>
+      </c>
       <c r="S61">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1459.0039999999999</v>
       </c>
       <c r="V61">
         <v>60</v>
       </c>
+      <c r="W61">
+        <v>3020331000</v>
+      </c>
       <c r="X61">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3020.3310000000001</v>
       </c>
       <c r="AA61">
         <v>60</v>
       </c>
+      <c r="AB61">
+        <v>5808995000</v>
+      </c>
       <c r="AC61">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5808.9949999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>61</v>
       </c>
+      <c r="C62">
+        <v>59986000</v>
+      </c>
       <c r="D62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.985999999999997</v>
       </c>
       <c r="G62">
         <v>61</v>
       </c>
+      <c r="H62">
+        <v>20559000</v>
+      </c>
       <c r="I62">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.559000000000001</v>
       </c>
       <c r="L62">
         <v>61</v>
       </c>
+      <c r="M62">
+        <v>30887000</v>
+      </c>
       <c r="N62">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30.887</v>
       </c>
       <c r="Q62">
         <v>61</v>
       </c>
+      <c r="R62">
+        <v>1461443000</v>
+      </c>
       <c r="S62">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1461.443</v>
       </c>
       <c r="V62">
         <v>61</v>
       </c>
+      <c r="W62">
+        <v>2966698000</v>
+      </c>
       <c r="X62">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2966.6979999999999</v>
       </c>
       <c r="AA62">
         <v>61</v>
       </c>
+      <c r="AB62">
+        <v>5784793000</v>
+      </c>
       <c r="AC62">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5784.7929999999997</v>
+      </c>
+    </row>
+    <row r="63" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>62</v>
       </c>
+      <c r="C63">
+        <v>58403000</v>
+      </c>
       <c r="D63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58.402999999999999</v>
       </c>
       <c r="G63">
         <v>62</v>
       </c>
+      <c r="H63">
+        <v>20539000</v>
+      </c>
       <c r="I63">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.539000000000001</v>
       </c>
       <c r="L63">
         <v>62</v>
       </c>
+      <c r="M63">
+        <v>24180000</v>
+      </c>
       <c r="N63">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24.18</v>
       </c>
       <c r="Q63">
         <v>62</v>
       </c>
+      <c r="R63">
+        <v>1459470000</v>
+      </c>
       <c r="S63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1459.47</v>
       </c>
       <c r="V63">
         <v>62</v>
       </c>
+      <c r="W63">
+        <v>3013600000</v>
+      </c>
       <c r="X63">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3013.6</v>
       </c>
       <c r="AA63">
         <v>62</v>
       </c>
+      <c r="AB63">
+        <v>5841968000</v>
+      </c>
       <c r="AC63">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5841.9679999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>63</v>
       </c>
+      <c r="C64">
+        <v>58937000</v>
+      </c>
       <c r="D64">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58.936999999999998</v>
       </c>
       <c r="G64">
         <v>63</v>
       </c>
+      <c r="H64">
+        <v>25416000</v>
+      </c>
       <c r="I64">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25.416</v>
       </c>
       <c r="L64">
         <v>63</v>
       </c>
+      <c r="M64">
+        <v>22390000</v>
+      </c>
       <c r="N64">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.39</v>
       </c>
       <c r="Q64">
         <v>63</v>
       </c>
+      <c r="R64">
+        <v>1464944000</v>
+      </c>
       <c r="S64">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1464.944</v>
       </c>
       <c r="V64">
         <v>63</v>
       </c>
+      <c r="W64">
+        <v>2955512000</v>
+      </c>
       <c r="X64">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2955.5120000000002</v>
       </c>
       <c r="AA64">
         <v>63</v>
       </c>
+      <c r="AB64">
+        <v>5878434000</v>
+      </c>
       <c r="AC64">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5878.4340000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>64</v>
       </c>
+      <c r="C65">
+        <v>59441000</v>
+      </c>
       <c r="D65">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59.441000000000003</v>
       </c>
       <c r="G65">
         <v>64</v>
       </c>
+      <c r="H65">
+        <v>25007000</v>
+      </c>
       <c r="I65">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25.007000000000001</v>
       </c>
       <c r="L65">
         <v>64</v>
       </c>
+      <c r="M65">
+        <v>22095000</v>
+      </c>
       <c r="N65">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.094999999999999</v>
       </c>
       <c r="Q65">
         <v>64</v>
       </c>
+      <c r="R65">
+        <v>1431377000</v>
+      </c>
       <c r="S65">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1431.377</v>
       </c>
       <c r="V65">
         <v>64</v>
       </c>
+      <c r="W65">
+        <v>2949563000</v>
+      </c>
       <c r="X65">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2949.5630000000001</v>
       </c>
       <c r="AA65">
         <v>64</v>
       </c>
+      <c r="AB65">
+        <v>5830698000</v>
+      </c>
       <c r="AC65">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5830.6980000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>65</v>
       </c>
+      <c r="C66">
+        <v>67547000</v>
+      </c>
       <c r="D66">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67.546999999999997</v>
       </c>
       <c r="G66">
         <v>65</v>
       </c>
+      <c r="H66">
+        <v>23007000</v>
+      </c>
       <c r="I66">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23.007000000000001</v>
       </c>
       <c r="L66">
         <v>65</v>
       </c>
+      <c r="M66">
+        <v>23434000</v>
+      </c>
       <c r="N66">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23.434000000000001</v>
       </c>
       <c r="Q66">
         <v>65</v>
       </c>
+      <c r="R66">
+        <v>1462044000</v>
+      </c>
       <c r="S66">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1462.0440000000001</v>
       </c>
       <c r="V66">
         <v>65</v>
       </c>
+      <c r="W66">
+        <v>2936047000</v>
+      </c>
       <c r="X66">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2936.047</v>
       </c>
       <c r="AA66">
         <v>65</v>
       </c>
+      <c r="AB66">
+        <v>5857107000</v>
+      </c>
       <c r="AC66">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5857.107</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>66</v>
       </c>
+      <c r="C67">
+        <v>60299000</v>
+      </c>
       <c r="D67">
         <f t="shared" ref="D67:D102" si="6">C67/1000000</f>
-        <v>0</v>
+        <v>60.298999999999999</v>
       </c>
       <c r="G67">
         <v>66</v>
       </c>
+      <c r="H67">
+        <v>22324000</v>
+      </c>
       <c r="I67">
         <f t="shared" ref="I67:I102" si="7">H67/1000000</f>
-        <v>0</v>
+        <v>22.324000000000002</v>
       </c>
       <c r="L67">
         <v>66</v>
       </c>
+      <c r="M67">
+        <v>20721000</v>
+      </c>
       <c r="N67">
         <f t="shared" ref="N67:N102" si="8">M67/1000000</f>
-        <v>0</v>
+        <v>20.721</v>
       </c>
       <c r="Q67">
         <v>66</v>
       </c>
+      <c r="R67">
+        <v>1473807000</v>
+      </c>
       <c r="S67">
         <f t="shared" ref="S67:S100" si="9">R67/1000000</f>
-        <v>0</v>
+        <v>1473.807</v>
       </c>
       <c r="V67">
         <v>66</v>
       </c>
+      <c r="W67">
+        <v>2984262000</v>
+      </c>
       <c r="X67">
         <f t="shared" ref="X67:X101" si="10">W67/1000000</f>
-        <v>0</v>
+        <v>2984.2620000000002</v>
       </c>
       <c r="AA67">
         <v>66</v>
       </c>
+      <c r="AB67">
+        <v>5823592000</v>
+      </c>
       <c r="AC67">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5823.5919999999996</v>
+      </c>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>67</v>
       </c>
+      <c r="C68">
+        <v>68711000</v>
+      </c>
       <c r="D68">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>68.710999999999999</v>
       </c>
       <c r="G68">
         <v>67</v>
       </c>
+      <c r="H68">
+        <v>22080000</v>
+      </c>
       <c r="I68">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22.08</v>
       </c>
       <c r="L68">
         <v>67</v>
       </c>
+      <c r="M68">
+        <v>21259000</v>
+      </c>
       <c r="N68">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>21.259</v>
       </c>
       <c r="Q68">
         <v>67</v>
       </c>
+      <c r="R68">
+        <v>1460922000</v>
+      </c>
       <c r="S68">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1460.922</v>
       </c>
       <c r="V68">
         <v>67</v>
       </c>
+      <c r="W68">
+        <v>2974772000</v>
+      </c>
       <c r="X68">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2974.7719999999999</v>
       </c>
       <c r="AA68">
         <v>67</v>
       </c>
+      <c r="AB68">
+        <v>5814939000</v>
+      </c>
       <c r="AC68">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5814.9390000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>68</v>
       </c>
+      <c r="C69">
+        <v>58966000</v>
+      </c>
       <c r="D69">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>58.966000000000001</v>
       </c>
       <c r="G69">
         <v>68</v>
       </c>
+      <c r="H69">
+        <v>21453000</v>
+      </c>
       <c r="I69">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>21.452999999999999</v>
       </c>
       <c r="L69">
         <v>68</v>
       </c>
+      <c r="M69">
+        <v>20446000</v>
+      </c>
       <c r="N69">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20.446000000000002</v>
       </c>
       <c r="Q69">
         <v>68</v>
       </c>
+      <c r="R69">
+        <v>1487182000</v>
+      </c>
       <c r="S69">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1487.182</v>
       </c>
       <c r="V69">
         <v>68</v>
       </c>
+      <c r="W69">
+        <v>2989384000</v>
+      </c>
       <c r="X69">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2989.384</v>
       </c>
       <c r="AA69">
         <v>68</v>
       </c>
+      <c r="AB69">
+        <v>5866197000</v>
+      </c>
       <c r="AC69">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5866.1970000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>69</v>
       </c>
+      <c r="C70">
+        <v>58573000</v>
+      </c>
       <c r="D70">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>58.573</v>
       </c>
       <c r="G70">
         <v>69</v>
       </c>
+      <c r="H70">
+        <v>25165000</v>
+      </c>
       <c r="I70">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>25.164999999999999</v>
       </c>
       <c r="L70">
         <v>69</v>
       </c>
+      <c r="M70">
+        <v>21302000</v>
+      </c>
       <c r="N70">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>21.302</v>
       </c>
       <c r="Q70">
         <v>69</v>
       </c>
+      <c r="R70">
+        <v>1439527000</v>
+      </c>
       <c r="S70">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1439.527</v>
       </c>
       <c r="V70">
         <v>69</v>
       </c>
+      <c r="W70">
+        <v>2900173000</v>
+      </c>
       <c r="X70">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2900.1729999999998</v>
       </c>
       <c r="AA70">
         <v>69</v>
       </c>
+      <c r="AB70">
+        <v>5867992000</v>
+      </c>
       <c r="AC70">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5867.9920000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>70</v>
       </c>
+      <c r="C71">
+        <v>58553000</v>
+      </c>
       <c r="D71">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>58.552999999999997</v>
       </c>
       <c r="G71">
         <v>70</v>
       </c>
+      <c r="H71">
+        <v>22452000</v>
+      </c>
       <c r="I71">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22.452000000000002</v>
       </c>
       <c r="L71">
         <v>70</v>
       </c>
+      <c r="M71">
+        <v>19953000</v>
+      </c>
       <c r="N71">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>19.952999999999999</v>
       </c>
       <c r="Q71">
         <v>70</v>
       </c>
+      <c r="R71">
+        <v>1458432000</v>
+      </c>
       <c r="S71">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1458.432</v>
       </c>
       <c r="V71">
         <v>70</v>
       </c>
+      <c r="W71">
+        <v>3000883000</v>
+      </c>
       <c r="X71">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3000.8829999999998</v>
       </c>
       <c r="AA71">
         <v>70</v>
       </c>
+      <c r="AB71">
+        <v>5835176000</v>
+      </c>
       <c r="AC71">
         <f t="shared" ref="AC71:AC101" si="11">AB71/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5835.1760000000004</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>71</v>
       </c>
+      <c r="C72">
+        <v>60048000</v>
+      </c>
       <c r="D72">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>60.048000000000002</v>
       </c>
       <c r="G72">
         <v>71</v>
       </c>
+      <c r="H72">
+        <v>26154000</v>
+      </c>
       <c r="I72">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>26.154</v>
       </c>
       <c r="L72">
         <v>71</v>
       </c>
+      <c r="M72">
+        <v>21318000</v>
+      </c>
       <c r="N72">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>21.318000000000001</v>
       </c>
       <c r="Q72">
         <v>71</v>
       </c>
+      <c r="R72">
+        <v>1504675000</v>
+      </c>
       <c r="S72">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1504.675</v>
       </c>
       <c r="V72">
         <v>71</v>
       </c>
+      <c r="W72">
+        <v>2990506000</v>
+      </c>
       <c r="X72">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2990.5059999999999</v>
       </c>
       <c r="AA72">
         <v>71</v>
       </c>
+      <c r="AB72">
+        <v>5868750000</v>
+      </c>
       <c r="AC72">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5868.75</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>72</v>
       </c>
+      <c r="C73">
+        <v>59167000</v>
+      </c>
       <c r="D73">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>59.167000000000002</v>
       </c>
       <c r="G73">
         <v>72</v>
       </c>
+      <c r="H73">
+        <v>23269000</v>
+      </c>
       <c r="I73">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>23.268999999999998</v>
       </c>
       <c r="L73">
         <v>72</v>
       </c>
+      <c r="M73">
+        <v>19646000</v>
+      </c>
       <c r="N73">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>19.646000000000001</v>
       </c>
       <c r="Q73">
         <v>72</v>
       </c>
+      <c r="R73">
+        <v>1486699000</v>
+      </c>
       <c r="S73">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1486.6990000000001</v>
       </c>
       <c r="V73">
         <v>72</v>
       </c>
+      <c r="W73">
+        <v>2945016000</v>
+      </c>
       <c r="X73">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2945.0160000000001</v>
       </c>
       <c r="AA73">
         <v>72</v>
       </c>
+      <c r="AB73">
+        <v>5796807000</v>
+      </c>
       <c r="AC73">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5796.8069999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>73</v>
       </c>
+      <c r="C74">
+        <v>59982000</v>
+      </c>
       <c r="D74">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>59.981999999999999</v>
       </c>
       <c r="G74">
         <v>73</v>
       </c>
+      <c r="H74">
+        <v>29238000</v>
+      </c>
       <c r="I74">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>29.238</v>
       </c>
       <c r="L74">
         <v>73</v>
       </c>
+      <c r="M74">
+        <v>21855000</v>
+      </c>
       <c r="N74">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>21.855</v>
       </c>
       <c r="Q74">
         <v>73</v>
       </c>
+      <c r="R74">
+        <v>1465073000</v>
+      </c>
       <c r="S74">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1465.0730000000001</v>
       </c>
       <c r="V74">
         <v>73</v>
       </c>
+      <c r="W74">
+        <v>3011259000</v>
+      </c>
       <c r="X74">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3011.259</v>
       </c>
       <c r="AA74">
         <v>73</v>
       </c>
+      <c r="AB74">
+        <v>5852508000</v>
+      </c>
       <c r="AC74">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5852.5079999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>74</v>
       </c>
+      <c r="C75">
+        <v>57295000</v>
+      </c>
       <c r="D75">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>57.295000000000002</v>
       </c>
       <c r="G75">
         <v>74</v>
       </c>
+      <c r="H75">
+        <v>24776000</v>
+      </c>
       <c r="I75">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>24.776</v>
       </c>
       <c r="L75">
         <v>74</v>
       </c>
+      <c r="M75">
+        <v>21243000</v>
+      </c>
       <c r="N75">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>21.242999999999999</v>
       </c>
       <c r="Q75">
         <v>74</v>
       </c>
+      <c r="R75">
+        <v>1498162000</v>
+      </c>
       <c r="S75">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1498.162</v>
       </c>
       <c r="V75">
         <v>74</v>
       </c>
+      <c r="W75">
+        <v>2974350000</v>
+      </c>
       <c r="X75">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2974.35</v>
       </c>
       <c r="AA75">
         <v>74</v>
       </c>
+      <c r="AB75">
+        <v>5852292000</v>
+      </c>
       <c r="AC75">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5852.2920000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>75</v>
       </c>
+      <c r="C76">
+        <v>59975000</v>
+      </c>
       <c r="D76">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>59.975000000000001</v>
       </c>
       <c r="G76">
         <v>75</v>
       </c>
+      <c r="H76">
+        <v>25909000</v>
+      </c>
       <c r="I76">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>25.908999999999999</v>
       </c>
       <c r="L76">
         <v>75</v>
       </c>
+      <c r="M76">
+        <v>18932000</v>
+      </c>
       <c r="N76">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>18.931999999999999</v>
       </c>
       <c r="Q76">
         <v>75</v>
       </c>
+      <c r="R76">
+        <v>1422152000</v>
+      </c>
       <c r="S76">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1422.152</v>
       </c>
       <c r="V76">
         <v>75</v>
       </c>
+      <c r="W76">
+        <v>2973298000</v>
+      </c>
       <c r="X76">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2973.2979999999998</v>
       </c>
       <c r="AA76">
         <v>75</v>
       </c>
+      <c r="AB76">
+        <v>5842366000</v>
+      </c>
       <c r="AC76">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5842.366</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>76</v>
       </c>
+      <c r="C77">
+        <v>59645000</v>
+      </c>
       <c r="D77">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>59.645000000000003</v>
       </c>
       <c r="G77">
         <v>76</v>
       </c>
+      <c r="H77">
+        <v>22216000</v>
+      </c>
       <c r="I77">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22.216000000000001</v>
       </c>
       <c r="L77">
         <v>76</v>
       </c>
+      <c r="M77">
+        <v>20555000</v>
+      </c>
       <c r="N77">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20.555</v>
       </c>
       <c r="Q77">
         <v>76</v>
       </c>
+      <c r="R77">
+        <v>1472613000</v>
+      </c>
       <c r="S77">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1472.6130000000001</v>
       </c>
       <c r="V77">
         <v>76</v>
       </c>
+      <c r="W77">
+        <v>2984824000</v>
+      </c>
       <c r="X77">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2984.8240000000001</v>
       </c>
       <c r="AA77">
         <v>76</v>
       </c>
+      <c r="AB77">
+        <v>5875150000</v>
+      </c>
       <c r="AC77">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5875.15</v>
+      </c>
+    </row>
+    <row r="78" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>77</v>
       </c>
+      <c r="C78">
+        <v>60365000</v>
+      </c>
       <c r="D78">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>60.365000000000002</v>
       </c>
       <c r="G78">
         <v>77</v>
       </c>
+      <c r="H78">
+        <v>21717000</v>
+      </c>
       <c r="I78">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>21.716999999999999</v>
       </c>
       <c r="L78">
         <v>77</v>
       </c>
+      <c r="M78">
+        <v>20852000</v>
+      </c>
       <c r="N78">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20.852</v>
       </c>
       <c r="Q78">
         <v>77</v>
       </c>
+      <c r="R78">
+        <v>1474803000</v>
+      </c>
       <c r="S78">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1474.8030000000001</v>
       </c>
       <c r="V78">
         <v>77</v>
       </c>
+      <c r="W78">
+        <v>3004383000</v>
+      </c>
       <c r="X78">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3004.3829999999998</v>
       </c>
       <c r="AA78">
         <v>77</v>
       </c>
+      <c r="AB78">
+        <v>5857080000</v>
+      </c>
       <c r="AC78">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5857.08</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>78</v>
       </c>
+      <c r="C79">
+        <v>58087000</v>
+      </c>
       <c r="D79">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>58.087000000000003</v>
       </c>
       <c r="G79">
         <v>78</v>
       </c>
+      <c r="H79">
+        <v>21056000</v>
+      </c>
       <c r="I79">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>21.056000000000001</v>
       </c>
       <c r="L79">
         <v>78</v>
       </c>
+      <c r="M79">
+        <v>20352000</v>
+      </c>
       <c r="N79">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20.352</v>
       </c>
       <c r="Q79">
         <v>78</v>
       </c>
+      <c r="R79">
+        <v>1485086000</v>
+      </c>
       <c r="S79">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1485.086</v>
       </c>
       <c r="V79">
         <v>78</v>
       </c>
+      <c r="W79">
+        <v>2962760000</v>
+      </c>
       <c r="X79">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2962.76</v>
       </c>
       <c r="AA79">
         <v>78</v>
       </c>
+      <c r="AB79">
+        <v>5812017000</v>
+      </c>
       <c r="AC79">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5812.0169999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>79</v>
       </c>
+      <c r="C80">
+        <v>62530000</v>
+      </c>
       <c r="D80">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>62.53</v>
       </c>
       <c r="G80">
         <v>79</v>
       </c>
+      <c r="H80">
+        <v>25146000</v>
+      </c>
       <c r="I80">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>25.146000000000001</v>
       </c>
       <c r="L80">
         <v>79</v>
       </c>
+      <c r="M80">
+        <v>22192000</v>
+      </c>
       <c r="N80">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>22.192</v>
       </c>
       <c r="Q80">
         <v>79</v>
       </c>
+      <c r="R80">
+        <v>1480339000</v>
+      </c>
       <c r="S80">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1480.3389999999999</v>
       </c>
       <c r="V80">
         <v>79</v>
       </c>
+      <c r="W80">
+        <v>2947905000</v>
+      </c>
       <c r="X80">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2947.9050000000002</v>
       </c>
       <c r="AA80">
         <v>79</v>
       </c>
+      <c r="AB80">
+        <v>5859229000</v>
+      </c>
       <c r="AC80">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5859.2290000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>80</v>
       </c>
+      <c r="C81">
+        <v>63050000</v>
+      </c>
       <c r="D81">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>63.05</v>
       </c>
       <c r="G81">
         <v>80</v>
       </c>
+      <c r="H81">
+        <v>22982000</v>
+      </c>
       <c r="I81">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22.981999999999999</v>
       </c>
       <c r="L81">
         <v>80</v>
       </c>
+      <c r="M81">
+        <v>19725000</v>
+      </c>
       <c r="N81">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>19.725000000000001</v>
       </c>
       <c r="Q81">
         <v>80</v>
       </c>
+      <c r="R81">
+        <v>1461588000</v>
+      </c>
       <c r="S81">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1461.588</v>
       </c>
       <c r="V81">
         <v>80</v>
       </c>
+      <c r="W81">
+        <v>2982379000</v>
+      </c>
       <c r="X81">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2982.3789999999999</v>
       </c>
       <c r="AA81">
         <v>80</v>
       </c>
+      <c r="AB81">
+        <v>5862276000</v>
+      </c>
       <c r="AC81">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5862.2759999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>81</v>
       </c>
+      <c r="C82">
+        <v>63569000</v>
+      </c>
       <c r="D82">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>63.569000000000003</v>
       </c>
       <c r="G82">
         <v>81</v>
       </c>
+      <c r="H82">
+        <v>20773000</v>
+      </c>
       <c r="I82">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>20.773</v>
       </c>
       <c r="L82">
         <v>81</v>
       </c>
+      <c r="M82">
+        <v>20164000</v>
+      </c>
       <c r="N82">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20.164000000000001</v>
       </c>
       <c r="Q82">
         <v>81</v>
       </c>
+      <c r="R82">
+        <v>1499081000</v>
+      </c>
       <c r="S82">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1499.0809999999999</v>
       </c>
       <c r="V82">
         <v>81</v>
       </c>
+      <c r="W82">
+        <v>2977001000</v>
+      </c>
       <c r="X82">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2977.0010000000002</v>
       </c>
       <c r="AA82">
         <v>81</v>
       </c>
+      <c r="AB82">
+        <v>5872925000</v>
+      </c>
       <c r="AC82">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5872.9250000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>82</v>
       </c>
+      <c r="C83">
+        <v>62101000</v>
+      </c>
       <c r="D83">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>62.100999999999999</v>
       </c>
       <c r="G83">
         <v>82</v>
       </c>
+      <c r="H83">
+        <v>20695000</v>
+      </c>
       <c r="I83">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>20.695</v>
       </c>
       <c r="L83">
         <v>82</v>
       </c>
+      <c r="M83">
+        <v>20583000</v>
+      </c>
       <c r="N83">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20.582999999999998</v>
       </c>
       <c r="Q83">
         <v>82</v>
       </c>
+      <c r="R83">
+        <v>1436783000</v>
+      </c>
       <c r="S83">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1436.7829999999999</v>
       </c>
       <c r="V83">
         <v>82</v>
       </c>
+      <c r="W83">
+        <v>2999517000</v>
+      </c>
       <c r="X83">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2999.5169999999998</v>
       </c>
       <c r="AA83">
         <v>82</v>
       </c>
+      <c r="AB83">
+        <v>5892024000</v>
+      </c>
       <c r="AC83">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5892.0240000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>83</v>
       </c>
+      <c r="C84">
+        <v>60720000</v>
+      </c>
       <c r="D84">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>60.72</v>
       </c>
       <c r="G84">
         <v>83</v>
       </c>
+      <c r="H84">
+        <v>19837000</v>
+      </c>
       <c r="I84">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>19.837</v>
       </c>
       <c r="L84">
         <v>83</v>
       </c>
+      <c r="M84">
+        <v>20097000</v>
+      </c>
       <c r="N84">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20.097000000000001</v>
       </c>
       <c r="Q84">
         <v>83</v>
       </c>
+      <c r="R84">
+        <v>1443413000</v>
+      </c>
       <c r="S84">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1443.413</v>
       </c>
       <c r="V84">
         <v>83</v>
       </c>
+      <c r="W84">
+        <v>2993592000</v>
+      </c>
       <c r="X84">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2993.5920000000001</v>
       </c>
       <c r="AA84">
         <v>83</v>
       </c>
+      <c r="AB84">
+        <v>5853835000</v>
+      </c>
       <c r="AC84">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5853.835</v>
+      </c>
+    </row>
+    <row r="85" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>84</v>
       </c>
+      <c r="C85">
+        <v>61084000</v>
+      </c>
       <c r="D85">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>61.084000000000003</v>
       </c>
       <c r="G85">
         <v>84</v>
       </c>
+      <c r="H85">
+        <v>21797000</v>
+      </c>
       <c r="I85">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>21.797000000000001</v>
       </c>
       <c r="L85">
         <v>84</v>
       </c>
+      <c r="M85">
+        <v>25235000</v>
+      </c>
       <c r="N85">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>25.234999999999999</v>
       </c>
       <c r="Q85">
         <v>84</v>
       </c>
+      <c r="R85">
+        <v>1481409000</v>
+      </c>
       <c r="S85">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1481.4090000000001</v>
       </c>
       <c r="V85">
         <v>84</v>
       </c>
+      <c r="W85">
+        <v>2999146000</v>
+      </c>
       <c r="X85">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2999.1460000000002</v>
       </c>
       <c r="AA85">
         <v>84</v>
       </c>
+      <c r="AB85">
+        <v>5791738000</v>
+      </c>
       <c r="AC85">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5791.7380000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>85</v>
       </c>
+      <c r="C86">
+        <v>61155000</v>
+      </c>
       <c r="D86">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>61.155000000000001</v>
       </c>
       <c r="G86">
         <v>85</v>
       </c>
+      <c r="H86">
+        <v>20212000</v>
+      </c>
       <c r="I86">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>20.212</v>
       </c>
       <c r="L86">
         <v>85</v>
       </c>
+      <c r="M86">
+        <v>19959000</v>
+      </c>
       <c r="N86">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>19.959</v>
       </c>
       <c r="Q86">
         <v>85</v>
       </c>
+      <c r="R86">
+        <v>1462952000</v>
+      </c>
       <c r="S86">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1462.952</v>
       </c>
       <c r="V86">
         <v>85</v>
       </c>
+      <c r="W86">
+        <v>2963264000</v>
+      </c>
       <c r="X86">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2963.2640000000001</v>
       </c>
       <c r="AA86">
         <v>85</v>
       </c>
+      <c r="AB86">
+        <v>5885948000</v>
+      </c>
       <c r="AC86">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5885.9480000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>86</v>
       </c>
+      <c r="C87">
+        <v>57095000</v>
+      </c>
       <c r="D87">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>57.094999999999999</v>
       </c>
       <c r="G87">
         <v>86</v>
       </c>
+      <c r="H87">
+        <v>21184000</v>
+      </c>
       <c r="I87">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>21.184000000000001</v>
       </c>
       <c r="L87">
         <v>86</v>
       </c>
+      <c r="M87">
+        <v>22749000</v>
+      </c>
       <c r="N87">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>22.748999999999999</v>
       </c>
       <c r="Q87">
         <v>86</v>
       </c>
+      <c r="R87">
+        <v>1482348000</v>
+      </c>
       <c r="S87">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1482.348</v>
       </c>
       <c r="V87">
         <v>86</v>
       </c>
+      <c r="W87">
+        <v>2989520000</v>
+      </c>
       <c r="X87">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2989.52</v>
       </c>
       <c r="AA87">
         <v>86</v>
       </c>
+      <c r="AB87">
+        <v>5837865000</v>
+      </c>
       <c r="AC87">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5837.8649999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>87</v>
       </c>
+      <c r="C88">
+        <v>59109000</v>
+      </c>
       <c r="D88">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>59.109000000000002</v>
       </c>
       <c r="G88">
         <v>87</v>
       </c>
+      <c r="H88">
+        <v>22172000</v>
+      </c>
       <c r="I88">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22.172000000000001</v>
       </c>
       <c r="L88">
         <v>87</v>
       </c>
+      <c r="M88">
+        <v>20710000</v>
+      </c>
       <c r="N88">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20.71</v>
       </c>
       <c r="Q88">
         <v>87</v>
       </c>
+      <c r="R88">
+        <v>1472059000</v>
+      </c>
       <c r="S88">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1472.059</v>
       </c>
       <c r="V88">
         <v>87</v>
       </c>
+      <c r="W88">
+        <v>2963717000</v>
+      </c>
       <c r="X88">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2963.7170000000001</v>
       </c>
       <c r="AA88">
         <v>87</v>
       </c>
+      <c r="AB88">
+        <v>5850977000</v>
+      </c>
       <c r="AC88">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5850.9769999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>88</v>
       </c>
+      <c r="C89">
+        <v>61841000</v>
+      </c>
       <c r="D89">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>61.841000000000001</v>
       </c>
       <c r="G89">
         <v>88</v>
       </c>
+      <c r="H89">
+        <v>21438000</v>
+      </c>
       <c r="I89">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>21.437999999999999</v>
       </c>
       <c r="L89">
         <v>88</v>
       </c>
+      <c r="M89">
+        <v>20025000</v>
+      </c>
       <c r="N89">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20.024999999999999</v>
       </c>
       <c r="Q89">
         <v>88</v>
       </c>
+      <c r="R89">
+        <v>1460593000</v>
+      </c>
       <c r="S89">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1460.5930000000001</v>
       </c>
       <c r="V89">
         <v>88</v>
       </c>
+      <c r="W89">
+        <v>2983570000</v>
+      </c>
       <c r="X89">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2983.57</v>
       </c>
       <c r="AA89">
         <v>88</v>
       </c>
+      <c r="AB89">
+        <v>5824060000</v>
+      </c>
       <c r="AC89">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5824.06</v>
+      </c>
+    </row>
+    <row r="90" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>89</v>
       </c>
+      <c r="C90">
+        <v>57737000</v>
+      </c>
       <c r="D90">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>57.737000000000002</v>
       </c>
       <c r="G90">
         <v>89</v>
       </c>
+      <c r="H90">
+        <v>22874000</v>
+      </c>
       <c r="I90">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22.873999999999999</v>
       </c>
       <c r="L90">
         <v>89</v>
       </c>
+      <c r="M90">
+        <v>20500000</v>
+      </c>
       <c r="N90">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="Q90">
         <v>89</v>
       </c>
+      <c r="R90">
+        <v>1457669000</v>
+      </c>
       <c r="S90">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1457.6690000000001</v>
       </c>
       <c r="V90">
         <v>89</v>
       </c>
+      <c r="W90">
+        <v>2957730000</v>
+      </c>
       <c r="X90">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2957.73</v>
       </c>
       <c r="AA90">
         <v>89</v>
       </c>
+      <c r="AB90">
+        <v>5828886000</v>
+      </c>
       <c r="AC90">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5828.8860000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>90</v>
       </c>
+      <c r="C91">
+        <v>59942000</v>
+      </c>
       <c r="D91">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>59.942</v>
       </c>
       <c r="G91">
         <v>90</v>
       </c>
+      <c r="H91">
+        <v>20896000</v>
+      </c>
       <c r="I91">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>20.896000000000001</v>
       </c>
       <c r="L91">
         <v>90</v>
       </c>
+      <c r="M91">
+        <v>28910000</v>
+      </c>
       <c r="N91">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>28.91</v>
       </c>
       <c r="Q91">
         <v>90</v>
       </c>
+      <c r="R91">
+        <v>1621904000</v>
+      </c>
       <c r="S91">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1621.904</v>
       </c>
       <c r="V91">
         <v>90</v>
       </c>
+      <c r="W91">
+        <v>3015185000</v>
+      </c>
       <c r="X91">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3015.1849999999999</v>
       </c>
       <c r="AA91">
         <v>90</v>
       </c>
+      <c r="AB91">
+        <v>5829150000</v>
+      </c>
       <c r="AC91">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5829.15</v>
+      </c>
+    </row>
+    <row r="92" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>91</v>
       </c>
+      <c r="C92">
+        <v>58422000</v>
+      </c>
       <c r="D92">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>58.421999999999997</v>
       </c>
       <c r="G92">
         <v>91</v>
       </c>
+      <c r="H92">
+        <v>21168000</v>
+      </c>
       <c r="I92">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>21.167999999999999</v>
       </c>
       <c r="L92">
         <v>91</v>
       </c>
+      <c r="M92">
+        <v>22062000</v>
+      </c>
       <c r="N92">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>22.062000000000001</v>
       </c>
       <c r="Q92">
         <v>91</v>
       </c>
+      <c r="R92">
+        <v>1471031000</v>
+      </c>
       <c r="S92">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1471.0309999999999</v>
       </c>
       <c r="V92">
         <v>91</v>
       </c>
+      <c r="W92">
+        <v>2943249000</v>
+      </c>
       <c r="X92">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2943.2489999999998</v>
       </c>
       <c r="AA92">
         <v>91</v>
       </c>
+      <c r="AB92">
+        <v>5835947000</v>
+      </c>
       <c r="AC92">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5835.9470000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>92</v>
       </c>
+      <c r="C93">
+        <v>60626000</v>
+      </c>
       <c r="D93">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>60.625999999999998</v>
       </c>
       <c r="G93">
         <v>92</v>
       </c>
+      <c r="H93">
+        <v>22506000</v>
+      </c>
       <c r="I93">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22.506</v>
       </c>
       <c r="L93">
         <v>92</v>
       </c>
+      <c r="M93">
+        <v>25214000</v>
+      </c>
       <c r="N93">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>25.213999999999999</v>
       </c>
       <c r="Q93">
         <v>92</v>
       </c>
+      <c r="R93">
+        <v>1507542000</v>
+      </c>
       <c r="S93">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1507.5419999999999</v>
       </c>
       <c r="V93">
         <v>92</v>
       </c>
+      <c r="W93">
+        <v>2947878000</v>
+      </c>
       <c r="X93">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2947.8780000000002</v>
       </c>
       <c r="AA93">
         <v>92</v>
       </c>
+      <c r="AB93">
+        <v>5802528000</v>
+      </c>
       <c r="AC93">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5802.5280000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>93</v>
       </c>
+      <c r="C94">
+        <v>60629000</v>
+      </c>
       <c r="D94">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>60.628999999999998</v>
       </c>
       <c r="G94">
         <v>93</v>
       </c>
+      <c r="H94">
+        <v>27377000</v>
+      </c>
       <c r="I94">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>27.376999999999999</v>
       </c>
       <c r="L94">
         <v>93</v>
       </c>
+      <c r="M94">
+        <v>23926000</v>
+      </c>
       <c r="N94">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>23.925999999999998</v>
       </c>
       <c r="Q94">
         <v>93</v>
       </c>
+      <c r="R94">
+        <v>1469951000</v>
+      </c>
       <c r="S94">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1469.951</v>
       </c>
       <c r="V94">
         <v>93</v>
       </c>
+      <c r="W94">
+        <v>2980344000</v>
+      </c>
       <c r="X94">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2980.3440000000001</v>
       </c>
       <c r="AA94">
         <v>93</v>
       </c>
+      <c r="AB94">
+        <v>5843779000</v>
+      </c>
       <c r="AC94">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5843.7790000000005</v>
+      </c>
+    </row>
+    <row r="95" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>94</v>
       </c>
+      <c r="C95">
+        <v>57986000</v>
+      </c>
       <c r="D95">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>57.985999999999997</v>
       </c>
       <c r="G95">
         <v>94</v>
       </c>
+      <c r="H95">
+        <v>22276000</v>
+      </c>
       <c r="I95">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22.276</v>
       </c>
       <c r="L95">
         <v>94</v>
       </c>
+      <c r="M95">
+        <v>21070000</v>
+      </c>
       <c r="N95">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>21.07</v>
       </c>
       <c r="Q95">
         <v>94</v>
       </c>
+      <c r="R95">
+        <v>1468589000</v>
+      </c>
       <c r="S95">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1468.5889999999999</v>
       </c>
       <c r="V95">
         <v>94</v>
       </c>
+      <c r="W95">
+        <v>2939762000</v>
+      </c>
       <c r="X95">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2939.7620000000002</v>
       </c>
       <c r="AA95">
         <v>94</v>
       </c>
+      <c r="AB95">
+        <v>5859265000</v>
+      </c>
       <c r="AC95">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5859.2650000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>95</v>
       </c>
+      <c r="C96">
+        <v>58945000</v>
+      </c>
       <c r="D96">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>58.945</v>
       </c>
       <c r="G96">
         <v>95</v>
       </c>
+      <c r="H96">
+        <v>21170000</v>
+      </c>
       <c r="I96">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>21.17</v>
       </c>
       <c r="L96">
         <v>95</v>
       </c>
+      <c r="M96">
+        <v>28890000</v>
+      </c>
       <c r="N96">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>28.89</v>
       </c>
       <c r="Q96">
         <v>95</v>
       </c>
+      <c r="R96">
+        <v>1462937000</v>
+      </c>
       <c r="S96">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1462.9369999999999</v>
       </c>
       <c r="V96">
         <v>95</v>
       </c>
+      <c r="W96">
+        <v>2963552000</v>
+      </c>
       <c r="X96">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2963.5520000000001</v>
       </c>
       <c r="AA96">
         <v>95</v>
       </c>
+      <c r="AB96">
+        <v>5842562000</v>
+      </c>
       <c r="AC96">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5842.5619999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>96</v>
       </c>
+      <c r="C97">
+        <v>59847000</v>
+      </c>
       <c r="D97">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>59.847000000000001</v>
       </c>
       <c r="G97">
         <v>96</v>
       </c>
+      <c r="H97">
+        <v>22878000</v>
+      </c>
       <c r="I97">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22.878</v>
       </c>
       <c r="L97">
         <v>96</v>
       </c>
+      <c r="M97">
+        <v>28210000</v>
+      </c>
       <c r="N97">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>28.21</v>
       </c>
       <c r="Q97">
         <v>96</v>
       </c>
+      <c r="R97">
+        <v>1459573000</v>
+      </c>
       <c r="S97">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1459.5730000000001</v>
       </c>
       <c r="V97">
         <v>96</v>
       </c>
+      <c r="W97">
+        <v>2989270000</v>
+      </c>
       <c r="X97">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2989.27</v>
       </c>
       <c r="AA97">
         <v>96</v>
       </c>
+      <c r="AB97">
+        <v>5795399000</v>
+      </c>
       <c r="AC97">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5795.3990000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>97</v>
       </c>
+      <c r="C98">
+        <v>59938000</v>
+      </c>
       <c r="D98">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>59.938000000000002</v>
       </c>
       <c r="G98">
         <v>97</v>
       </c>
+      <c r="H98">
+        <v>22366000</v>
+      </c>
       <c r="I98">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22.366</v>
       </c>
       <c r="L98">
         <v>97</v>
       </c>
+      <c r="M98">
+        <v>19588000</v>
+      </c>
       <c r="N98">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>19.588000000000001</v>
       </c>
       <c r="Q98">
         <v>97</v>
       </c>
+      <c r="R98">
+        <v>1453356000</v>
+      </c>
       <c r="S98">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1453.356</v>
       </c>
       <c r="V98">
         <v>97</v>
       </c>
+      <c r="W98">
+        <v>2984194000</v>
+      </c>
       <c r="X98">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2984.194</v>
       </c>
       <c r="AA98">
         <v>97</v>
       </c>
+      <c r="AB98">
+        <v>5771639000</v>
+      </c>
       <c r="AC98">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5771.6390000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>98</v>
       </c>
+      <c r="C99">
+        <v>57829000</v>
+      </c>
       <c r="D99">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>57.829000000000001</v>
       </c>
       <c r="G99">
         <v>98</v>
       </c>
+      <c r="H99">
+        <v>21243000</v>
+      </c>
       <c r="I99">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>21.242999999999999</v>
       </c>
       <c r="L99">
         <v>98</v>
       </c>
+      <c r="M99">
+        <v>20453000</v>
+      </c>
       <c r="N99">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>20.452999999999999</v>
       </c>
       <c r="Q99">
         <v>98</v>
       </c>
+      <c r="R99">
+        <v>1473844000</v>
+      </c>
       <c r="S99">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1473.8440000000001</v>
       </c>
       <c r="V99">
         <v>98</v>
       </c>
+      <c r="W99">
+        <v>2966037000</v>
+      </c>
       <c r="X99">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2966.0369999999998</v>
       </c>
       <c r="AA99">
         <v>98</v>
       </c>
+      <c r="AB99">
+        <v>5896186000</v>
+      </c>
       <c r="AC99">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5896.1859999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>99</v>
       </c>
+      <c r="C100">
+        <v>59548000</v>
+      </c>
       <c r="D100">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>59.548000000000002</v>
       </c>
       <c r="G100">
         <v>99</v>
       </c>
+      <c r="H100">
+        <v>25248000</v>
+      </c>
       <c r="I100">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>25.248000000000001</v>
       </c>
       <c r="L100">
         <v>99</v>
       </c>
+      <c r="M100">
+        <v>21143000</v>
+      </c>
       <c r="N100">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>21.143000000000001</v>
       </c>
       <c r="Q100">
         <v>99</v>
       </c>
+      <c r="R100">
+        <v>1472102000</v>
+      </c>
       <c r="S100">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1472.1020000000001</v>
       </c>
       <c r="V100">
         <v>99</v>
       </c>
+      <c r="W100">
+        <v>2973011000</v>
+      </c>
       <c r="X100">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2973.011</v>
       </c>
       <c r="AA100">
         <v>99</v>
       </c>
+      <c r="AB100">
+        <v>5763262000</v>
+      </c>
       <c r="AC100">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5763.2619999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>100</v>
       </c>
+      <c r="C101">
+        <v>60583000</v>
+      </c>
       <c r="D101">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>60.582999999999998</v>
       </c>
       <c r="G101">
         <v>100</v>
       </c>
+      <c r="H101">
+        <v>22063000</v>
+      </c>
       <c r="I101">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>22.062999999999999</v>
       </c>
       <c r="L101">
         <v>100</v>
       </c>
+      <c r="M101">
+        <v>19995000</v>
+      </c>
       <c r="N101">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>19.995000000000001</v>
       </c>
       <c r="Q101">
         <v>100</v>
       </c>
+      <c r="R101">
+        <v>1478888000</v>
+      </c>
       <c r="S101">
         <f>R101/1000000</f>
-        <v>0</v>
+        <v>1478.8879999999999</v>
       </c>
       <c r="V101">
         <v>100</v>
       </c>
+      <c r="W101">
+        <v>3009481000</v>
+      </c>
       <c r="X101">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3009.4810000000002</v>
       </c>
       <c r="AA101">
         <v>100</v>
       </c>
+      <c r="AB101">
+        <v>5841149000</v>
+      </c>
       <c r="AC101">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:29" x14ac:dyDescent="0.45">
+        <v>5841.1490000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>3</v>
       </c>
       <c r="C102">
         <f>SUM(C2:C101)/100</f>
-        <v>0</v>
+        <v>61341440</v>
       </c>
       <c r="D102">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>61.341439999999999</v>
       </c>
       <c r="G102" t="s">
         <v>3</v>
       </c>
       <c r="H102">
         <f>SUM(H2:H101)/100</f>
-        <v>0</v>
+        <v>24851060</v>
       </c>
       <c r="I102">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>24.85106</v>
       </c>
       <c r="L102" t="s">
         <v>3</v>
       </c>
       <c r="M102">
         <f>SUM(M2:M101)/100</f>
-        <v>0</v>
+        <v>22791750</v>
       </c>
       <c r="N102">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>22.79175</v>
       </c>
       <c r="Q102" t="s">
         <v>3</v>
       </c>
       <c r="R102">
         <f>SUM(R2:R101)/20</f>
-        <v>0</v>
+        <v>7357357800</v>
       </c>
       <c r="S102">
         <f>R102/1000000</f>
-        <v>0</v>
+        <v>7357.3577999999998</v>
       </c>
       <c r="V102" t="s">
         <v>3</v>
       </c>
       <c r="W102">
         <f>SUM(W2:W101)/100</f>
-        <v>0</v>
+        <v>2978796120</v>
       </c>
       <c r="X102">
         <f>W102/1000000</f>
-        <v>0</v>
+        <v>2978.79612</v>
       </c>
       <c r="AA102" t="s">
         <v>3</v>
       </c>
       <c r="AB102">
         <f>SUM(AB2:AB101)/100</f>
-        <v>0</v>
+        <v>5837193990</v>
       </c>
       <c r="AC102">
         <f>AB102/1000000</f>
-        <v>0</v>
+        <v>5837.1939899999998</v>
       </c>
     </row>
   </sheetData>
